--- a/test.xlsx
+++ b/test.xlsx
@@ -36,6 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
@@ -90,9 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -390,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F418"/>
+  <dimension ref="A1:F421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,8 +418,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>42736</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -429,13 +433,13 @@
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>42736</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>42737</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -449,13 +453,13 @@
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>42737</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>42738</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -469,13 +473,13 @@
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>42738</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>42739</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -489,13 +493,13 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>42739</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>42740</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -509,13 +513,13 @@
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>42740</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>42741</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -529,13 +533,13 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>42741</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>42742</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -549,13 +553,13 @@
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>42742</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>42743</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -569,13 +573,13 @@
       <c r="E9">
         <v>100</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>42743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>42744</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -589,13 +593,13 @@
       <c r="E10">
         <v>100</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>42744</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>42745</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -609,13 +613,13 @@
       <c r="E11">
         <v>100</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>42745</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>42746</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -629,13 +633,13 @@
       <c r="E12">
         <v>100</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>42746</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>42747</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -649,13 +653,13 @@
       <c r="E13">
         <v>100</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>42747</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>42748</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -669,13 +673,13 @@
       <c r="E14">
         <v>100</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>42748</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>42749</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -689,13 +693,13 @@
       <c r="E15">
         <v>100</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>42749</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>42750</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -709,13 +713,13 @@
       <c r="E16">
         <v>100</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>42750</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>42751</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -729,13 +733,13 @@
       <c r="E17">
         <v>100</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>42751</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>42752</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -749,13 +753,13 @@
       <c r="E18">
         <v>100</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>42752</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>42753</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -769,13 +773,13 @@
       <c r="E19">
         <v>100</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>42753</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>42754</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -789,13 +793,13 @@
       <c r="E20">
         <v>100</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>42754</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>42755</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -809,13 +813,13 @@
       <c r="E21">
         <v>100</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>42755</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>42756</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -829,13 +833,13 @@
       <c r="E22">
         <v>100</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>42756</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>42757</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -849,13 +853,13 @@
       <c r="E23">
         <v>100</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>42757</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>42758</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -869,13 +873,13 @@
       <c r="E24">
         <v>100</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>42758</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>42759</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -889,13 +893,13 @@
       <c r="E25">
         <v>100</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>42759</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>42760</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -909,13 +913,13 @@
       <c r="E26">
         <v>100</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>42760</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>42761</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -929,13 +933,13 @@
       <c r="E27">
         <v>100</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>42761</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>42762</v>
       </c>
       <c r="B28">
         <v>-1.4</v>
@@ -949,13 +953,13 @@
       <c r="E28">
         <v>98.59999999999999</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>42762</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>42763</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -969,13 +973,13 @@
       <c r="E29">
         <v>98.59999999999999</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>42763</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>42764</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -989,13 +993,13 @@
       <c r="E30">
         <v>98.59999999999999</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>42764</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>42765</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1009,13 +1013,13 @@
       <c r="E31">
         <v>98.59999999999999</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>42765</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>42766</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1029,13 +1033,13 @@
       <c r="E32">
         <v>98.59999999999999</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>42766</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>42767</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1049,13 +1053,13 @@
       <c r="E33">
         <v>98.59999999999999</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>42767</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>42768</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1069,13 +1073,13 @@
       <c r="E34">
         <v>98.59999999999999</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>42768</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>42769</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1089,13 +1093,13 @@
       <c r="E35">
         <v>98.59999999999999</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>42769</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>42770</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1109,13 +1113,13 @@
       <c r="E36">
         <v>98.59999999999999</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>42770</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>42771</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1129,13 +1133,13 @@
       <c r="E37">
         <v>98.59999999999999</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>42771</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>42772</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1149,13 +1153,13 @@
       <c r="E38">
         <v>98.59999999999999</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>42772</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>42773</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1169,13 +1173,13 @@
       <c r="E39">
         <v>98.59999999999999</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>42773</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>42774</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1189,13 +1193,13 @@
       <c r="E40">
         <v>98.59999999999999</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>42774</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>42775</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1209,13 +1213,13 @@
       <c r="E41">
         <v>98.59999999999999</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>42775</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>42776</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1229,13 +1233,13 @@
       <c r="E42">
         <v>98.59999999999999</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>42776</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>42777</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1249,13 +1253,13 @@
       <c r="E43">
         <v>98.59999999999999</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>42777</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>42778</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1269,13 +1273,13 @@
       <c r="E44">
         <v>98.59999999999999</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>42778</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>42779</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1289,13 +1293,13 @@
       <c r="E45">
         <v>98.59999999999999</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>42779</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>42780</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1309,13 +1313,13 @@
       <c r="E46">
         <v>98.59999999999999</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>42780</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>42781</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1329,13 +1333,13 @@
       <c r="E47">
         <v>98.59999999999999</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>42781</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>42782</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1349,13 +1353,13 @@
       <c r="E48">
         <v>98.59999999999999</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>42782</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>42783</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1369,13 +1373,13 @@
       <c r="E49">
         <v>98.59999999999999</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>42783</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>42784</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1389,13 +1393,13 @@
       <c r="E50">
         <v>98.59999999999999</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>42784</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>42785</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1409,13 +1413,13 @@
       <c r="E51">
         <v>98.59999999999999</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>42785</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>42786</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1429,13 +1433,13 @@
       <c r="E52">
         <v>98.59999999999999</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>42786</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>42787</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1449,13 +1453,13 @@
       <c r="E53">
         <v>98.59999999999999</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>42787</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>42788</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1469,13 +1473,13 @@
       <c r="E54">
         <v>98.59999999999999</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>42788</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>42789</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1489,13 +1493,13 @@
       <c r="E55">
         <v>98.59999999999999</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>42789</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>42790</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1509,13 +1513,13 @@
       <c r="E56">
         <v>98.59999999999999</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>42790</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>42791</v>
       </c>
       <c r="B57">
         <v>-5.4</v>
@@ -1529,13 +1533,13 @@
       <c r="E57">
         <v>93.28</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>42791</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>42792</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1549,13 +1553,13 @@
       <c r="E58">
         <v>93.28</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>42792</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>42793</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1569,13 +1573,13 @@
       <c r="E59">
         <v>93.28</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>42793</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>42794</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1589,13 +1593,13 @@
       <c r="E60">
         <v>93.28</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>42794</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>42795</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1609,13 +1613,13 @@
       <c r="E61">
         <v>93.28</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>42795</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>42796</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1629,13 +1633,13 @@
       <c r="E62">
         <v>93.28</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>42796</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>42797</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1649,13 +1653,13 @@
       <c r="E63">
         <v>93.28</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>42797</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>42798</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1669,13 +1673,13 @@
       <c r="E64">
         <v>93.28</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>42798</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>42799</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1689,13 +1693,13 @@
       <c r="E65">
         <v>93.28</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>42799</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>42800</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1709,13 +1713,13 @@
       <c r="E66">
         <v>93.28</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>42800</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>42801</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1729,13 +1733,13 @@
       <c r="E67">
         <v>93.28</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>42801</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>42802</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1749,13 +1753,13 @@
       <c r="E68">
         <v>93.28</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="3">
         <v>42802</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>42803</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1769,13 +1773,13 @@
       <c r="E69">
         <v>93.28</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="3">
         <v>42803</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>42804</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1789,13 +1793,13 @@
       <c r="E70">
         <v>93.28</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="3">
         <v>42804</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>42805</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1809,13 +1813,13 @@
       <c r="E71">
         <v>93.28</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="3">
         <v>42805</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>42806</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1829,13 +1833,13 @@
       <c r="E72">
         <v>93.28</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="3">
         <v>42806</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>42807</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1849,13 +1853,13 @@
       <c r="E73">
         <v>93.28</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="3">
         <v>42807</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>42808</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1869,13 +1873,13 @@
       <c r="E74">
         <v>93.28</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="3">
         <v>42808</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>42809</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1889,13 +1893,13 @@
       <c r="E75">
         <v>93.28</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="3">
         <v>42809</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>42810</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1909,13 +1913,13 @@
       <c r="E76">
         <v>93.28</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="3">
         <v>42810</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>42811</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1929,13 +1933,13 @@
       <c r="E77">
         <v>93.28</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="3">
         <v>42811</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>42812</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1949,13 +1953,13 @@
       <c r="E78">
         <v>93.28</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="3">
         <v>42812</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>42813</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1969,13 +1973,13 @@
       <c r="E79">
         <v>93.28</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="3">
         <v>42813</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>42814</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1989,13 +1993,13 @@
       <c r="E80">
         <v>93.28</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="3">
         <v>42814</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>42815</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2009,13 +2013,13 @@
       <c r="E81">
         <v>93.28</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="3">
         <v>42815</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>42816</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2029,13 +2033,13 @@
       <c r="E82">
         <v>93.28</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="3">
         <v>42816</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>42817</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2049,13 +2053,13 @@
       <c r="E83">
         <v>93.28</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="3">
         <v>42817</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>42818</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2069,13 +2073,13 @@
       <c r="E84">
         <v>93.28</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="3">
         <v>42818</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>42819</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2089,13 +2093,13 @@
       <c r="E85">
         <v>93.28</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="3">
         <v>42819</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>42820</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2109,13 +2113,13 @@
       <c r="E86">
         <v>93.28</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="3">
         <v>42820</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>42821</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2129,13 +2133,13 @@
       <c r="E87">
         <v>93.28</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="3">
         <v>42821</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>42822</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2149,13 +2153,13 @@
       <c r="E88">
         <v>93.28</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="3">
         <v>42822</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>42823</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2169,13 +2173,13 @@
       <c r="E89">
         <v>93.28</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="3">
         <v>42823</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>42824</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2189,13 +2193,13 @@
       <c r="E90">
         <v>93.28</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="3">
         <v>42824</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>42825</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2209,13 +2213,13 @@
       <c r="E91">
         <v>93.28</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="3">
         <v>42825</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>42826</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2229,13 +2233,13 @@
       <c r="E92">
         <v>93.28</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="3">
         <v>42826</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>42827</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2249,13 +2253,13 @@
       <c r="E93">
         <v>93.28</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="3">
         <v>42827</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>42828</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2269,13 +2273,13 @@
       <c r="E94">
         <v>93.28</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="3">
         <v>42828</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>42829</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2289,13 +2293,13 @@
       <c r="E95">
         <v>93.28</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="3">
         <v>42829</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>42830</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2309,13 +2313,13 @@
       <c r="E96">
         <v>93.28</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="3">
         <v>42830</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>42831</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2329,13 +2333,13 @@
       <c r="E97">
         <v>93.28</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="3">
         <v>42831</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>42832</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2349,13 +2353,13 @@
       <c r="E98">
         <v>93.28</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="3">
         <v>42832</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>42833</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2369,13 +2373,13 @@
       <c r="E99">
         <v>93.28</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="3">
         <v>42833</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>42834</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2389,13 +2393,13 @@
       <c r="E100">
         <v>93.28</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="3">
         <v>42834</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>42835</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2409,13 +2413,13 @@
       <c r="E101">
         <v>93.28</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="3">
         <v>42835</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>42836</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2429,13 +2433,13 @@
       <c r="E102">
         <v>93.28</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="3">
         <v>42836</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>42837</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2449,13 +2453,13 @@
       <c r="E103">
         <v>93.28</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="3">
         <v>42837</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>42838</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2469,13 +2473,13 @@
       <c r="E104">
         <v>93.28</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="3">
         <v>42838</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>42839</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2489,13 +2493,13 @@
       <c r="E105">
         <v>93.28</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="3">
         <v>42839</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>42840</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2509,13 +2513,13 @@
       <c r="E106">
         <v>93.28</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="3">
         <v>42840</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>42841</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2529,13 +2533,13 @@
       <c r="E107">
         <v>93.28</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="3">
         <v>42841</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>42842</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2549,13 +2553,13 @@
       <c r="E108">
         <v>93.28</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="3">
         <v>42842</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>42843</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2569,13 +2573,13 @@
       <c r="E109">
         <v>93.28</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="3">
         <v>42843</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>42844</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2589,13 +2593,13 @@
       <c r="E110">
         <v>93.28</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="3">
         <v>42844</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>42845</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2609,13 +2613,13 @@
       <c r="E111">
         <v>93.28</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="3">
         <v>42845</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>42846</v>
       </c>
       <c r="B112">
         <v>2.2</v>
@@ -2629,13 +2633,13 @@
       <c r="E112">
         <v>95.33</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="3">
         <v>42846</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>42847</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2649,13 +2653,13 @@
       <c r="E113">
         <v>95.33</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="3">
         <v>42847</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>42848</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2669,13 +2673,13 @@
       <c r="E114">
         <v>95.33</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="3">
         <v>42848</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>42849</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2689,13 +2693,13 @@
       <c r="E115">
         <v>95.33</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="3">
         <v>42849</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>42850</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2709,13 +2713,13 @@
       <c r="E116">
         <v>95.33</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="3">
         <v>42850</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>42851</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2729,13 +2733,13 @@
       <c r="E117">
         <v>95.33</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="3">
         <v>42851</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>42852</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2749,13 +2753,13 @@
       <c r="E118">
         <v>95.33</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="3">
         <v>42852</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>42853</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2769,13 +2773,13 @@
       <c r="E119">
         <v>95.33</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="3">
         <v>42853</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>42854</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2789,13 +2793,13 @@
       <c r="E120">
         <v>95.33</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="3">
         <v>42854</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>42855</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2809,13 +2813,13 @@
       <c r="E121">
         <v>95.33</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="3">
         <v>42855</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>42856</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2829,13 +2833,13 @@
       <c r="E122">
         <v>95.33</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="3">
         <v>42856</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>42857</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2849,13 +2853,13 @@
       <c r="E123">
         <v>95.33</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="3">
         <v>42857</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>42858</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2869,13 +2873,13 @@
       <c r="E124">
         <v>95.33</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="3">
         <v>42858</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>42859</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2889,13 +2893,13 @@
       <c r="E125">
         <v>95.33</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="3">
         <v>42859</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>42860</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2909,13 +2913,13 @@
       <c r="E126">
         <v>95.33</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="3">
         <v>42860</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>42861</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2929,13 +2933,13 @@
       <c r="E127">
         <v>95.33</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="3">
         <v>42861</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>42862</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2949,13 +2953,13 @@
       <c r="E128">
         <v>95.33</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="3">
         <v>42862</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>42863</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2969,13 +2973,13 @@
       <c r="E129">
         <v>95.33</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="3">
         <v>42863</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>42864</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2989,13 +2993,13 @@
       <c r="E130">
         <v>95.33</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="3">
         <v>42864</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>42865</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3009,13 +3013,13 @@
       <c r="E131">
         <v>95.33</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="3">
         <v>42865</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>42866</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3029,13 +3033,13 @@
       <c r="E132">
         <v>95.33</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="3">
         <v>42866</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>42867</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3049,13 +3053,13 @@
       <c r="E133">
         <v>95.33</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="3">
         <v>42867</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>42868</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3069,13 +3073,13 @@
       <c r="E134">
         <v>95.33</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="3">
         <v>42868</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>42869</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3089,13 +3093,13 @@
       <c r="E135">
         <v>95.33</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="3">
         <v>42869</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>42870</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3109,13 +3113,13 @@
       <c r="E136">
         <v>95.33</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="3">
         <v>42870</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>42871</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3129,13 +3133,13 @@
       <c r="E137">
         <v>95.33</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="3">
         <v>42871</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>42872</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3149,13 +3153,13 @@
       <c r="E138">
         <v>95.33</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="3">
         <v>42872</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>42873</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3169,13 +3173,13 @@
       <c r="E139">
         <v>95.33</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="3">
         <v>42873</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>42874</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3189,13 +3193,13 @@
       <c r="E140">
         <v>95.33</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="3">
         <v>42874</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>42875</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3209,13 +3213,13 @@
       <c r="E141">
         <v>95.33</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="3">
         <v>42875</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>42876</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3229,13 +3233,13 @@
       <c r="E142">
         <v>95.33</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142" s="3">
         <v>42876</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>42877</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3249,13 +3253,13 @@
       <c r="E143">
         <v>95.33</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="3">
         <v>42877</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>42878</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3269,13 +3273,13 @@
       <c r="E144">
         <v>95.33</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="3">
         <v>42878</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>42879</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3289,13 +3293,13 @@
       <c r="E145">
         <v>95.33</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="3">
         <v>42879</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>42880</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3309,13 +3313,13 @@
       <c r="E146">
         <v>95.33</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146" s="3">
         <v>42880</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>42881</v>
       </c>
       <c r="B147">
         <v>-5.4</v>
@@ -3329,13 +3333,13 @@
       <c r="E147">
         <v>90.18000000000001</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="3">
         <v>42881</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>42882</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3349,13 +3353,13 @@
       <c r="E148">
         <v>90.18000000000001</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="3">
         <v>42882</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>42883</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3369,13 +3373,13 @@
       <c r="E149">
         <v>90.18000000000001</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="3">
         <v>42883</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>42884</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3389,13 +3393,13 @@
       <c r="E150">
         <v>90.18000000000001</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="3">
         <v>42884</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>42885</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3409,13 +3413,13 @@
       <c r="E151">
         <v>90.18000000000001</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="3">
         <v>42885</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>42886</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3429,13 +3433,13 @@
       <c r="E152">
         <v>90.18000000000001</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152" s="3">
         <v>42886</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>42887</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3449,13 +3453,13 @@
       <c r="E153">
         <v>90.18000000000001</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="3">
         <v>42887</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>42888</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3469,13 +3473,13 @@
       <c r="E154">
         <v>90.18000000000001</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="3">
         <v>42888</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>42889</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3489,13 +3493,13 @@
       <c r="E155">
         <v>90.18000000000001</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="3">
         <v>42889</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>42890</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3509,13 +3513,13 @@
       <c r="E156">
         <v>90.18000000000001</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="3">
         <v>42890</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>42891</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3529,13 +3533,13 @@
       <c r="E157">
         <v>90.18000000000001</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="3">
         <v>42891</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>42892</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3549,13 +3553,13 @@
       <c r="E158">
         <v>90.18000000000001</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="3">
         <v>42892</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>42893</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3569,13 +3573,13 @@
       <c r="E159">
         <v>90.18000000000001</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="3">
         <v>42893</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>42894</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3589,13 +3593,13 @@
       <c r="E160">
         <v>90.18000000000001</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="3">
         <v>42894</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>42895</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3609,13 +3613,13 @@
       <c r="E161">
         <v>90.18000000000001</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="3">
         <v>42895</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>42896</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3629,13 +3633,13 @@
       <c r="E162">
         <v>90.18000000000001</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="3">
         <v>42896</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>42897</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3649,13 +3653,13 @@
       <c r="E163">
         <v>90.18000000000001</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="3">
         <v>42897</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>42898</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3669,13 +3673,13 @@
       <c r="E164">
         <v>90.18000000000001</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="3">
         <v>42898</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>42899</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3689,13 +3693,13 @@
       <c r="E165">
         <v>90.18000000000001</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="3">
         <v>42899</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>42900</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3709,13 +3713,13 @@
       <c r="E166">
         <v>90.18000000000001</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166" s="3">
         <v>42900</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>42901</v>
       </c>
       <c r="B167">
         <v>-2.3</v>
@@ -3729,13 +3733,13 @@
       <c r="E167">
         <v>88.11</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167" s="3">
         <v>42901</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>42902</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3749,13 +3753,13 @@
       <c r="E168">
         <v>88.11</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168" s="3">
         <v>42902</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>42903</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3769,13 +3773,13 @@
       <c r="E169">
         <v>88.11</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169" s="3">
         <v>42903</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>42904</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3789,13 +3793,13 @@
       <c r="E170">
         <v>88.11</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170" s="3">
         <v>42904</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>42905</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3809,13 +3813,13 @@
       <c r="E171">
         <v>88.11</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171" s="3">
         <v>42905</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>42906</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3829,13 +3833,13 @@
       <c r="E172">
         <v>88.11</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172" s="3">
         <v>42906</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>42907</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3849,13 +3853,13 @@
       <c r="E173">
         <v>88.11</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173" s="3">
         <v>42907</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>42908</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3869,13 +3873,13 @@
       <c r="E174">
         <v>88.11</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174" s="3">
         <v>42908</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>42909</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3889,13 +3893,13 @@
       <c r="E175">
         <v>88.11</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175" s="3">
         <v>42909</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>42910</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3909,13 +3913,13 @@
       <c r="E176">
         <v>88.11</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176" s="3">
         <v>42910</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="1">
-        <v>175</v>
+      <c r="A177" s="2">
+        <v>42911</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3929,13 +3933,13 @@
       <c r="E177">
         <v>88.11</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177" s="3">
         <v>42911</v>
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="1">
-        <v>176</v>
+      <c r="A178" s="2">
+        <v>42912</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3949,13 +3953,13 @@
       <c r="E178">
         <v>88.11</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178" s="3">
         <v>42912</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="1">
-        <v>177</v>
+      <c r="A179" s="2">
+        <v>42913</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3969,13 +3973,13 @@
       <c r="E179">
         <v>88.11</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179" s="3">
         <v>42913</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="1">
-        <v>178</v>
+      <c r="A180" s="2">
+        <v>42914</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3989,13 +3993,13 @@
       <c r="E180">
         <v>88.11</v>
       </c>
-      <c r="F180" s="2">
+      <c r="F180" s="3">
         <v>42914</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="1">
-        <v>179</v>
+      <c r="A181" s="2">
+        <v>42915</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4009,13 +4013,13 @@
       <c r="E181">
         <v>88.11</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181" s="3">
         <v>42915</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>42916</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4029,13 +4033,13 @@
       <c r="E182">
         <v>88.11</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182" s="3">
         <v>42916</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="1">
-        <v>181</v>
+      <c r="A183" s="2">
+        <v>42917</v>
       </c>
       <c r="B183">
         <v>-5.9</v>
@@ -4049,13 +4053,13 @@
       <c r="E183">
         <v>82.91</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183" s="3">
         <v>42917</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="1">
-        <v>182</v>
+      <c r="A184" s="2">
+        <v>42918</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4069,13 +4073,13 @@
       <c r="E184">
         <v>82.91</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184" s="3">
         <v>42918</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="1">
-        <v>183</v>
+      <c r="A185" s="2">
+        <v>42919</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4089,13 +4093,13 @@
       <c r="E185">
         <v>82.91</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185" s="3">
         <v>42919</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="1">
-        <v>184</v>
+      <c r="A186" s="2">
+        <v>42920</v>
       </c>
       <c r="B186">
         <v>1.8</v>
@@ -4109,13 +4113,13 @@
       <c r="E186">
         <v>84.40000000000001</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186" s="3">
         <v>42920</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="1">
-        <v>185</v>
+      <c r="A187" s="2">
+        <v>42921</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4129,13 +4133,13 @@
       <c r="E187">
         <v>84.40000000000001</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187" s="3">
         <v>42921</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="1">
-        <v>186</v>
+      <c r="A188" s="2">
+        <v>42922</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4149,13 +4153,13 @@
       <c r="E188">
         <v>84.40000000000001</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188" s="3">
         <v>42922</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="1">
-        <v>187</v>
+      <c r="A189" s="2">
+        <v>42923</v>
       </c>
       <c r="B189">
         <v>-0.5</v>
@@ -4169,13 +4173,13 @@
       <c r="E189">
         <v>83.98</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189" s="3">
         <v>42923</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="1">
-        <v>188</v>
+      <c r="A190" s="2">
+        <v>42924</v>
       </c>
       <c r="B190">
         <v>-0.7</v>
@@ -4189,13 +4193,13 @@
       <c r="E190">
         <v>83.39</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190" s="3">
         <v>42924</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="1">
-        <v>189</v>
+      <c r="A191" s="2">
+        <v>42925</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4209,13 +4213,13 @@
       <c r="E191">
         <v>83.39</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191" s="3">
         <v>42925</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="1">
-        <v>190</v>
+      <c r="A192" s="2">
+        <v>42926</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4229,13 +4233,13 @@
       <c r="E192">
         <v>83.39</v>
       </c>
-      <c r="F192" s="2">
+      <c r="F192" s="3">
         <v>42926</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="1">
-        <v>191</v>
+      <c r="A193" s="2">
+        <v>42927</v>
       </c>
       <c r="B193">
         <v>-2</v>
@@ -4249,13 +4253,13 @@
       <c r="E193">
         <v>81.72</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193" s="3">
         <v>42927</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="1">
-        <v>192</v>
+      <c r="A194" s="2">
+        <v>42928</v>
       </c>
       <c r="B194">
         <v>-0.6</v>
@@ -4269,13 +4273,13 @@
       <c r="E194">
         <v>81.23</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194" s="3">
         <v>42928</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="1">
-        <v>193</v>
+      <c r="A195" s="2">
+        <v>42929</v>
       </c>
       <c r="B195">
         <v>-0.1</v>
@@ -4289,13 +4293,13 @@
       <c r="E195">
         <v>81.15000000000001</v>
       </c>
-      <c r="F195" s="2">
+      <c r="F195" s="3">
         <v>42929</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="1">
-        <v>194</v>
+      <c r="A196" s="2">
+        <v>42930</v>
       </c>
       <c r="B196">
         <v>1.7</v>
@@ -4309,13 +4313,13 @@
       <c r="E196">
         <v>82.53</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F196" s="3">
         <v>42930</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="1">
-        <v>195</v>
+      <c r="A197" s="2">
+        <v>42931</v>
       </c>
       <c r="B197">
         <v>-1.9</v>
@@ -4329,13 +4333,13 @@
       <c r="E197">
         <v>80.95999999999999</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197" s="3">
         <v>42931</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="1">
-        <v>196</v>
+      <c r="A198" s="2">
+        <v>42932</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4349,13 +4353,13 @@
       <c r="E198">
         <v>80.95999999999999</v>
       </c>
-      <c r="F198" s="2">
+      <c r="F198" s="3">
         <v>42932</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="1">
-        <v>197</v>
+      <c r="A199" s="2">
+        <v>42933</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -4369,13 +4373,13 @@
       <c r="E199">
         <v>80.95999999999999</v>
       </c>
-      <c r="F199" s="2">
+      <c r="F199" s="3">
         <v>42933</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="1">
-        <v>198</v>
+      <c r="A200" s="2">
+        <v>42934</v>
       </c>
       <c r="B200">
         <v>0.7</v>
@@ -4389,13 +4393,13 @@
       <c r="E200">
         <v>81.53</v>
       </c>
-      <c r="F200" s="2">
+      <c r="F200" s="3">
         <v>42934</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="1">
-        <v>199</v>
+      <c r="A201" s="2">
+        <v>42935</v>
       </c>
       <c r="B201">
         <v>-0.6</v>
@@ -4409,13 +4413,13 @@
       <c r="E201">
         <v>81.04000000000001</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201" s="3">
         <v>42935</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="1">
-        <v>200</v>
+      <c r="A202" s="2">
+        <v>42936</v>
       </c>
       <c r="B202">
         <v>-0.5</v>
@@ -4429,13 +4433,13 @@
       <c r="E202">
         <v>80.63</v>
       </c>
-      <c r="F202" s="2">
+      <c r="F202" s="3">
         <v>42936</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="1">
-        <v>201</v>
+      <c r="A203" s="2">
+        <v>42937</v>
       </c>
       <c r="B203">
         <v>0.1</v>
@@ -4449,13 +4453,13 @@
       <c r="E203">
         <v>80.72</v>
       </c>
-      <c r="F203" s="2">
+      <c r="F203" s="3">
         <v>42937</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="1">
-        <v>202</v>
+      <c r="A204" s="2">
+        <v>42938</v>
       </c>
       <c r="B204">
         <v>1.4</v>
@@ -4469,13 +4473,13 @@
       <c r="E204">
         <v>81.84999999999999</v>
       </c>
-      <c r="F204" s="2">
+      <c r="F204" s="3">
         <v>42938</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="1">
-        <v>203</v>
+      <c r="A205" s="2">
+        <v>42939</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -4489,13 +4493,13 @@
       <c r="E205">
         <v>81.84999999999999</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205" s="3">
         <v>42939</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="1">
-        <v>204</v>
+      <c r="A206" s="2">
+        <v>42940</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -4509,13 +4513,13 @@
       <c r="E206">
         <v>81.84999999999999</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206" s="3">
         <v>42940</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="1">
-        <v>205</v>
+      <c r="A207" s="2">
+        <v>42941</v>
       </c>
       <c r="B207">
         <v>-1.8</v>
@@ -4529,13 +4533,13 @@
       <c r="E207">
         <v>80.37</v>
       </c>
-      <c r="F207" s="2">
+      <c r="F207" s="3">
         <v>42941</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="1">
-        <v>206</v>
+      <c r="A208" s="2">
+        <v>42942</v>
       </c>
       <c r="B208">
         <v>1.9</v>
@@ -4549,13 +4553,13 @@
       <c r="E208">
         <v>81.90000000000001</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208" s="3">
         <v>42942</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="1">
-        <v>207</v>
+      <c r="A209" s="2">
+        <v>42943</v>
       </c>
       <c r="B209">
         <v>0.6</v>
@@ -4569,13 +4573,13 @@
       <c r="E209">
         <v>82.39</v>
       </c>
-      <c r="F209" s="2">
+      <c r="F209" s="3">
         <v>42943</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="1">
-        <v>208</v>
+      <c r="A210" s="2">
+        <v>42944</v>
       </c>
       <c r="B210">
         <v>2.2</v>
@@ -4589,13 +4593,13 @@
       <c r="E210">
         <v>84.2</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210" s="3">
         <v>42944</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="1">
-        <v>209</v>
+      <c r="A211" s="2">
+        <v>42945</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -4609,13 +4613,13 @@
       <c r="E211">
         <v>85.05</v>
       </c>
-      <c r="F211" s="2">
+      <c r="F211" s="3">
         <v>42945</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>210</v>
+      <c r="A212" s="2">
+        <v>42946</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -4629,13 +4633,13 @@
       <c r="E212">
         <v>85.05</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212" s="3">
         <v>42946</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>211</v>
+      <c r="A213" s="2">
+        <v>42947</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -4649,13 +4653,13 @@
       <c r="E213">
         <v>85.05</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213" s="3">
         <v>42947</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>212</v>
+      <c r="A214" s="2">
+        <v>42948</v>
       </c>
       <c r="B214">
         <v>0.8</v>
@@ -4669,13 +4673,13 @@
       <c r="E214">
         <v>85.73</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214" s="3">
         <v>42948</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>213</v>
+      <c r="A215" s="2">
+        <v>42949</v>
       </c>
       <c r="B215">
         <v>1.6</v>
@@ -4689,13 +4693,13 @@
       <c r="E215">
         <v>87.09999999999999</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F215" s="3">
         <v>42949</v>
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>214</v>
+      <c r="A216" s="2">
+        <v>42950</v>
       </c>
       <c r="B216">
         <v>-1.3</v>
@@ -4709,13 +4713,13 @@
       <c r="E216">
         <v>85.95999999999999</v>
       </c>
-      <c r="F216" s="2">
+      <c r="F216" s="3">
         <v>42950</v>
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>215</v>
+      <c r="A217" s="2">
+        <v>42951</v>
       </c>
       <c r="B217">
         <v>0.2</v>
@@ -4729,13 +4733,13 @@
       <c r="E217">
         <v>86.14</v>
       </c>
-      <c r="F217" s="2">
+      <c r="F217" s="3">
         <v>42951</v>
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>216</v>
+      <c r="A218" s="2">
+        <v>42952</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -4749,13 +4753,13 @@
       <c r="E218">
         <v>86.14</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F218" s="3">
         <v>42952</v>
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>217</v>
+      <c r="A219" s="2">
+        <v>42953</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -4769,13 +4773,13 @@
       <c r="E219">
         <v>86.14</v>
       </c>
-      <c r="F219" s="2">
+      <c r="F219" s="3">
         <v>42953</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>218</v>
+      <c r="A220" s="2">
+        <v>42954</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -4789,13 +4793,13 @@
       <c r="E220">
         <v>86.14</v>
       </c>
-      <c r="F220" s="2">
+      <c r="F220" s="3">
         <v>42954</v>
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>219</v>
+      <c r="A221" s="2">
+        <v>42955</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -4809,13 +4813,13 @@
       <c r="E221">
         <v>86.14</v>
       </c>
-      <c r="F221" s="2">
+      <c r="F221" s="3">
         <v>42955</v>
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>220</v>
+      <c r="A222" s="2">
+        <v>42956</v>
       </c>
       <c r="B222">
         <v>-0.3</v>
@@ -4829,13 +4833,13 @@
       <c r="E222">
         <v>85.88</v>
       </c>
-      <c r="F222" s="2">
+      <c r="F222" s="3">
         <v>42956</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>221</v>
+      <c r="A223" s="2">
+        <v>42957</v>
       </c>
       <c r="B223">
         <v>0.9</v>
@@ -4849,13 +4853,13 @@
       <c r="E223">
         <v>86.65000000000001</v>
       </c>
-      <c r="F223" s="2">
+      <c r="F223" s="3">
         <v>42957</v>
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>222</v>
+      <c r="A224" s="2">
+        <v>42958</v>
       </c>
       <c r="B224">
         <v>-1.2</v>
@@ -4869,13 +4873,13 @@
       <c r="E224">
         <v>85.61</v>
       </c>
-      <c r="F224" s="2">
+      <c r="F224" s="3">
         <v>42958</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>223</v>
+      <c r="A225" s="2">
+        <v>42959</v>
       </c>
       <c r="B225">
         <v>1.6</v>
@@ -4889,13 +4893,13 @@
       <c r="E225">
         <v>86.98</v>
       </c>
-      <c r="F225" s="2">
+      <c r="F225" s="3">
         <v>42959</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>224</v>
+      <c r="A226" s="2">
+        <v>42960</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -4909,13 +4913,13 @@
       <c r="E226">
         <v>86.98</v>
       </c>
-      <c r="F226" s="2">
+      <c r="F226" s="3">
         <v>42960</v>
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>225</v>
+      <c r="A227" s="2">
+        <v>42961</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -4929,13 +4933,13 @@
       <c r="E227">
         <v>86.98</v>
       </c>
-      <c r="F227" s="2">
+      <c r="F227" s="3">
         <v>42961</v>
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>226</v>
+      <c r="A228" s="2">
+        <v>42962</v>
       </c>
       <c r="B228">
         <v>-1.4</v>
@@ -4949,13 +4953,13 @@
       <c r="E228">
         <v>85.76000000000001</v>
       </c>
-      <c r="F228" s="2">
+      <c r="F228" s="3">
         <v>42962</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>227</v>
+      <c r="A229" s="2">
+        <v>42963</v>
       </c>
       <c r="B229">
         <v>1.1</v>
@@ -4969,13 +4973,13 @@
       <c r="E229">
         <v>86.70999999999999</v>
       </c>
-      <c r="F229" s="2">
+      <c r="F229" s="3">
         <v>42963</v>
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>228</v>
+      <c r="A230" s="2">
+        <v>42964</v>
       </c>
       <c r="B230">
         <v>-1.4</v>
@@ -4989,13 +4993,13 @@
       <c r="E230">
         <v>85.48999999999999</v>
       </c>
-      <c r="F230" s="2">
+      <c r="F230" s="3">
         <v>42964</v>
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>229</v>
+      <c r="A231" s="2">
+        <v>42965</v>
       </c>
       <c r="B231">
         <v>-0.4</v>
@@ -5009,13 +5013,13 @@
       <c r="E231">
         <v>85.15000000000001</v>
       </c>
-      <c r="F231" s="2">
+      <c r="F231" s="3">
         <v>42965</v>
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>230</v>
+      <c r="A232" s="2">
+        <v>42966</v>
       </c>
       <c r="B232">
         <v>-1.4</v>
@@ -5029,13 +5033,13 @@
       <c r="E232">
         <v>83.95999999999999</v>
       </c>
-      <c r="F232" s="2">
+      <c r="F232" s="3">
         <v>42966</v>
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>231</v>
+      <c r="A233" s="2">
+        <v>42967</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -5049,13 +5053,13 @@
       <c r="E233">
         <v>83.95999999999999</v>
       </c>
-      <c r="F233" s="2">
+      <c r="F233" s="3">
         <v>42967</v>
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="1">
-        <v>232</v>
+      <c r="A234" s="2">
+        <v>42968</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -5069,13 +5073,13 @@
       <c r="E234">
         <v>83.95999999999999</v>
       </c>
-      <c r="F234" s="2">
+      <c r="F234" s="3">
         <v>42968</v>
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="1">
-        <v>233</v>
+      <c r="A235" s="2">
+        <v>42969</v>
       </c>
       <c r="B235">
         <v>3.3</v>
@@ -5089,13 +5093,13 @@
       <c r="E235">
         <v>86.73</v>
       </c>
-      <c r="F235" s="2">
+      <c r="F235" s="3">
         <v>42969</v>
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="1">
-        <v>234</v>
+      <c r="A236" s="2">
+        <v>42970</v>
       </c>
       <c r="B236">
         <v>-0.1</v>
@@ -5109,13 +5113,13 @@
       <c r="E236">
         <v>86.64</v>
       </c>
-      <c r="F236" s="2">
+      <c r="F236" s="3">
         <v>42970</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="1">
-        <v>235</v>
+      <c r="A237" s="2">
+        <v>42971</v>
       </c>
       <c r="B237">
         <v>-0.3</v>
@@ -5129,13 +5133,13 @@
       <c r="E237">
         <v>86.38</v>
       </c>
-      <c r="F237" s="2">
+      <c r="F237" s="3">
         <v>42971</v>
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="1">
-        <v>236</v>
+      <c r="A238" s="2">
+        <v>42972</v>
       </c>
       <c r="B238">
         <v>-0.5</v>
@@ -5149,13 +5153,13 @@
       <c r="E238">
         <v>85.95</v>
       </c>
-      <c r="F238" s="2">
+      <c r="F238" s="3">
         <v>42972</v>
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="1">
-        <v>237</v>
+      <c r="A239" s="2">
+        <v>42973</v>
       </c>
       <c r="B239">
         <v>1.2</v>
@@ -5169,13 +5173,13 @@
       <c r="E239">
         <v>86.98</v>
       </c>
-      <c r="F239" s="2">
+      <c r="F239" s="3">
         <v>42973</v>
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="1">
-        <v>238</v>
+      <c r="A240" s="2">
+        <v>42974</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -5189,13 +5193,13 @@
       <c r="E240">
         <v>86.98</v>
       </c>
-      <c r="F240" s="2">
+      <c r="F240" s="3">
         <v>42974</v>
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="1">
-        <v>239</v>
+      <c r="A241" s="2">
+        <v>42975</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -5209,13 +5213,13 @@
       <c r="E241">
         <v>86.98</v>
       </c>
-      <c r="F241" s="2">
+      <c r="F241" s="3">
         <v>42975</v>
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="1">
-        <v>240</v>
+      <c r="A242" s="2">
+        <v>42976</v>
       </c>
       <c r="B242">
         <v>1.1</v>
@@ -5229,13 +5233,13 @@
       <c r="E242">
         <v>87.94</v>
       </c>
-      <c r="F242" s="2">
+      <c r="F242" s="3">
         <v>42976</v>
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="1">
-        <v>241</v>
+      <c r="A243" s="2">
+        <v>42977</v>
       </c>
       <c r="B243">
         <v>-1.1</v>
@@ -5249,13 +5253,13 @@
       <c r="E243">
         <v>86.97</v>
       </c>
-      <c r="F243" s="2">
+      <c r="F243" s="3">
         <v>42977</v>
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="1">
-        <v>242</v>
+      <c r="A244" s="2">
+        <v>42978</v>
       </c>
       <c r="B244">
         <v>0.5</v>
@@ -5269,13 +5273,13 @@
       <c r="E244">
         <v>87.41</v>
       </c>
-      <c r="F244" s="2">
+      <c r="F244" s="3">
         <v>42978</v>
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="1">
-        <v>243</v>
+      <c r="A245" s="2">
+        <v>42979</v>
       </c>
       <c r="B245">
         <v>4.2</v>
@@ -5289,13 +5293,13 @@
       <c r="E245">
         <v>91.08</v>
       </c>
-      <c r="F245" s="2">
+      <c r="F245" s="3">
         <v>42979</v>
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="1">
-        <v>244</v>
+      <c r="A246" s="2">
+        <v>42980</v>
       </c>
       <c r="B246">
         <v>2.7</v>
@@ -5309,13 +5313,13 @@
       <c r="E246">
         <v>93.54000000000001</v>
       </c>
-      <c r="F246" s="2">
+      <c r="F246" s="3">
         <v>42980</v>
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="1">
-        <v>245</v>
+      <c r="A247" s="2">
+        <v>42981</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -5329,13 +5333,13 @@
       <c r="E247">
         <v>93.54000000000001</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F247" s="3">
         <v>42981</v>
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="1">
-        <v>246</v>
+      <c r="A248" s="2">
+        <v>42982</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -5349,13 +5353,13 @@
       <c r="E248">
         <v>93.54000000000001</v>
       </c>
-      <c r="F248" s="2">
+      <c r="F248" s="3">
         <v>42982</v>
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="1">
-        <v>247</v>
+      <c r="A249" s="2">
+        <v>42983</v>
       </c>
       <c r="B249">
         <v>3.3</v>
@@ -5369,13 +5373,13 @@
       <c r="E249">
         <v>96.62</v>
       </c>
-      <c r="F249" s="2">
+      <c r="F249" s="3">
         <v>42983</v>
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="1">
-        <v>248</v>
+      <c r="A250" s="2">
+        <v>42984</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -5389,13 +5393,13 @@
       <c r="E250">
         <v>96.62</v>
       </c>
-      <c r="F250" s="2">
+      <c r="F250" s="3">
         <v>42984</v>
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="1">
-        <v>249</v>
+      <c r="A251" s="2">
+        <v>42985</v>
       </c>
       <c r="B251">
         <v>-3.8</v>
@@ -5409,13 +5413,13 @@
       <c r="E251">
         <v>92.95</v>
       </c>
-      <c r="F251" s="2">
+      <c r="F251" s="3">
         <v>42985</v>
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="1">
-        <v>250</v>
+      <c r="A252" s="2">
+        <v>42986</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -5429,13 +5433,13 @@
       <c r="E252">
         <v>92.95</v>
       </c>
-      <c r="F252" s="2">
+      <c r="F252" s="3">
         <v>42986</v>
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="1">
-        <v>251</v>
+      <c r="A253" s="2">
+        <v>42987</v>
       </c>
       <c r="B253">
         <v>2.6</v>
@@ -5449,13 +5453,13 @@
       <c r="E253">
         <v>95.37</v>
       </c>
-      <c r="F253" s="2">
+      <c r="F253" s="3">
         <v>42987</v>
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="1">
-        <v>252</v>
+      <c r="A254" s="2">
+        <v>42988</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -5469,13 +5473,13 @@
       <c r="E254">
         <v>95.37</v>
       </c>
-      <c r="F254" s="2">
+      <c r="F254" s="3">
         <v>42988</v>
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="1">
-        <v>253</v>
+      <c r="A255" s="2">
+        <v>42989</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -5489,13 +5493,13 @@
       <c r="E255">
         <v>95.37</v>
       </c>
-      <c r="F255" s="2">
+      <c r="F255" s="3">
         <v>42989</v>
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="1">
-        <v>254</v>
+      <c r="A256" s="2">
+        <v>42990</v>
       </c>
       <c r="B256">
         <v>-2.5</v>
@@ -5509,13 +5513,13 @@
       <c r="E256">
         <v>92.98</v>
       </c>
-      <c r="F256" s="2">
+      <c r="F256" s="3">
         <v>42990</v>
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="1">
-        <v>255</v>
+      <c r="A257" s="2">
+        <v>42991</v>
       </c>
       <c r="B257">
         <v>-1.2</v>
@@ -5529,13 +5533,13 @@
       <c r="E257">
         <v>91.87</v>
       </c>
-      <c r="F257" s="2">
+      <c r="F257" s="3">
         <v>42991</v>
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="1">
-        <v>256</v>
+      <c r="A258" s="2">
+        <v>42992</v>
       </c>
       <c r="B258">
         <v>-0.9</v>
@@ -5549,13 +5553,13 @@
       <c r="E258">
         <v>91.04000000000001</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258" s="3">
         <v>42992</v>
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="1">
-        <v>257</v>
+      <c r="A259" s="2">
+        <v>42993</v>
       </c>
       <c r="B259">
         <v>1.3</v>
@@ -5569,13 +5573,13 @@
       <c r="E259">
         <v>92.23</v>
       </c>
-      <c r="F259" s="2">
+      <c r="F259" s="3">
         <v>42993</v>
       </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="1">
-        <v>258</v>
+      <c r="A260" s="2">
+        <v>42994</v>
       </c>
       <c r="B260">
         <v>-0.6</v>
@@ -5589,13 +5593,13 @@
       <c r="E260">
         <v>91.67</v>
       </c>
-      <c r="F260" s="2">
+      <c r="F260" s="3">
         <v>42994</v>
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="1">
-        <v>259</v>
+      <c r="A261" s="2">
+        <v>42995</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -5609,13 +5613,13 @@
       <c r="E261">
         <v>91.67</v>
       </c>
-      <c r="F261" s="2">
+      <c r="F261" s="3">
         <v>42995</v>
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="1">
-        <v>260</v>
+      <c r="A262" s="2">
+        <v>42996</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -5629,13 +5633,13 @@
       <c r="E262">
         <v>91.67</v>
       </c>
-      <c r="F262" s="2">
+      <c r="F262" s="3">
         <v>42996</v>
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="1">
-        <v>261</v>
+      <c r="A263" s="2">
+        <v>42997</v>
       </c>
       <c r="B263">
         <v>-0.7</v>
@@ -5649,13 +5653,13 @@
       <c r="E263">
         <v>91.03</v>
       </c>
-      <c r="F263" s="2">
+      <c r="F263" s="3">
         <v>42997</v>
       </c>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="1">
-        <v>262</v>
+      <c r="A264" s="2">
+        <v>42998</v>
       </c>
       <c r="B264">
         <v>1.4</v>
@@ -5669,13 +5673,13 @@
       <c r="E264">
         <v>92.3</v>
       </c>
-      <c r="F264" s="2">
+      <c r="F264" s="3">
         <v>42998</v>
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="1">
-        <v>263</v>
+      <c r="A265" s="2">
+        <v>42999</v>
       </c>
       <c r="B265">
         <v>-0.4</v>
@@ -5689,13 +5693,13 @@
       <c r="E265">
         <v>91.94</v>
       </c>
-      <c r="F265" s="2">
+      <c r="F265" s="3">
         <v>42999</v>
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="1">
-        <v>264</v>
+      <c r="A266" s="2">
+        <v>43000</v>
       </c>
       <c r="B266">
         <v>-0.2</v>
@@ -5709,13 +5713,13 @@
       <c r="E266">
         <v>91.75</v>
       </c>
-      <c r="F266" s="2">
+      <c r="F266" s="3">
         <v>43000</v>
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="1">
-        <v>265</v>
+      <c r="A267" s="2">
+        <v>43001</v>
       </c>
       <c r="B267">
         <v>0.2</v>
@@ -5729,13 +5733,13 @@
       <c r="E267">
         <v>91.94</v>
       </c>
-      <c r="F267" s="2">
+      <c r="F267" s="3">
         <v>43001</v>
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="1">
-        <v>266</v>
+      <c r="A268" s="2">
+        <v>43002</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -5749,13 +5753,13 @@
       <c r="E268">
         <v>91.94</v>
       </c>
-      <c r="F268" s="2">
+      <c r="F268" s="3">
         <v>43002</v>
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="1">
-        <v>267</v>
+      <c r="A269" s="2">
+        <v>43003</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -5769,13 +5773,13 @@
       <c r="E269">
         <v>91.94</v>
       </c>
-      <c r="F269" s="2">
+      <c r="F269" s="3">
         <v>43003</v>
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="1">
-        <v>268</v>
+      <c r="A270" s="2">
+        <v>43004</v>
       </c>
       <c r="B270">
         <v>-0.3</v>
@@ -5789,13 +5793,13 @@
       <c r="E270">
         <v>91.66</v>
       </c>
-      <c r="F270" s="2">
+      <c r="F270" s="3">
         <v>43004</v>
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="1">
-        <v>269</v>
+      <c r="A271" s="2">
+        <v>43005</v>
       </c>
       <c r="B271">
         <v>0.4</v>
@@ -5809,13 +5813,13 @@
       <c r="E271">
         <v>92.03</v>
       </c>
-      <c r="F271" s="2">
+      <c r="F271" s="3">
         <v>43005</v>
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="1">
-        <v>270</v>
+      <c r="A272" s="2">
+        <v>43006</v>
       </c>
       <c r="B272">
         <v>1.5</v>
@@ -5829,13 +5833,13 @@
       <c r="E272">
         <v>93.41</v>
       </c>
-      <c r="F272" s="2">
+      <c r="F272" s="3">
         <v>43006</v>
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="1">
-        <v>271</v>
+      <c r="A273" s="2">
+        <v>43007</v>
       </c>
       <c r="B273">
         <v>-1.1</v>
@@ -5849,13 +5853,13 @@
       <c r="E273">
         <v>92.38</v>
       </c>
-      <c r="F273" s="2">
+      <c r="F273" s="3">
         <v>43007</v>
       </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="1">
-        <v>272</v>
+      <c r="A274" s="2">
+        <v>43008</v>
       </c>
       <c r="B274">
         <v>-2.1</v>
@@ -5869,13 +5873,13 @@
       <c r="E274">
         <v>90.44</v>
       </c>
-      <c r="F274" s="2">
+      <c r="F274" s="3">
         <v>43008</v>
       </c>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275" s="1">
-        <v>273</v>
+      <c r="A275" s="2">
+        <v>43009</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -5889,13 +5893,13 @@
       <c r="E275">
         <v>90.44</v>
       </c>
-      <c r="F275" s="2">
+      <c r="F275" s="3">
         <v>43009</v>
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="1">
-        <v>274</v>
+      <c r="A276" s="2">
+        <v>43010</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -5909,13 +5913,13 @@
       <c r="E276">
         <v>90.44</v>
       </c>
-      <c r="F276" s="2">
+      <c r="F276" s="3">
         <v>43010</v>
       </c>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="1">
-        <v>275</v>
+      <c r="A277" s="2">
+        <v>43011</v>
       </c>
       <c r="B277">
         <v>-0.5</v>
@@ -5929,13 +5933,13 @@
       <c r="E277">
         <v>89.98999999999999</v>
       </c>
-      <c r="F277" s="2">
+      <c r="F277" s="3">
         <v>43011</v>
       </c>
     </row>
     <row r="278" spans="1:6">
-      <c r="A278" s="1">
-        <v>276</v>
+      <c r="A278" s="2">
+        <v>43012</v>
       </c>
       <c r="B278">
         <v>-2.3</v>
@@ -5949,13 +5953,13 @@
       <c r="E278">
         <v>87.92</v>
       </c>
-      <c r="F278" s="2">
+      <c r="F278" s="3">
         <v>43012</v>
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="1">
-        <v>277</v>
+      <c r="A279" s="2">
+        <v>43013</v>
       </c>
       <c r="B279">
         <v>-0.3</v>
@@ -5969,13 +5973,13 @@
       <c r="E279">
         <v>87.65000000000001</v>
       </c>
-      <c r="F279" s="2">
+      <c r="F279" s="3">
         <v>43013</v>
       </c>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="1">
-        <v>278</v>
+      <c r="A280" s="2">
+        <v>43014</v>
       </c>
       <c r="B280">
         <v>-0.7</v>
@@ -5989,13 +5993,13 @@
       <c r="E280">
         <v>87.04000000000001</v>
       </c>
-      <c r="F280" s="2">
+      <c r="F280" s="3">
         <v>43014</v>
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="1">
-        <v>279</v>
+      <c r="A281" s="2">
+        <v>43015</v>
       </c>
       <c r="B281">
         <v>1.9</v>
@@ -6009,13 +6013,13 @@
       <c r="E281">
         <v>88.69</v>
       </c>
-      <c r="F281" s="2">
+      <c r="F281" s="3">
         <v>43015</v>
       </c>
     </row>
     <row r="282" spans="1:6">
-      <c r="A282" s="1">
-        <v>280</v>
+      <c r="A282" s="2">
+        <v>43016</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -6029,13 +6033,13 @@
       <c r="E282">
         <v>88.69</v>
       </c>
-      <c r="F282" s="2">
+      <c r="F282" s="3">
         <v>43016</v>
       </c>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="1">
-        <v>281</v>
+      <c r="A283" s="2">
+        <v>43017</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -6049,13 +6053,13 @@
       <c r="E283">
         <v>88.69</v>
       </c>
-      <c r="F283" s="2">
+      <c r="F283" s="3">
         <v>43017</v>
       </c>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="1">
-        <v>282</v>
+      <c r="A284" s="2">
+        <v>43018</v>
       </c>
       <c r="B284">
         <v>1.5</v>
@@ -6069,13 +6073,13 @@
       <c r="E284">
         <v>90.02</v>
       </c>
-      <c r="F284" s="2">
+      <c r="F284" s="3">
         <v>43018</v>
       </c>
     </row>
     <row r="285" spans="1:6">
-      <c r="A285" s="1">
-        <v>283</v>
+      <c r="A285" s="2">
+        <v>43019</v>
       </c>
       <c r="B285">
         <v>-2.6</v>
@@ -6089,13 +6093,13 @@
       <c r="E285">
         <v>87.68000000000001</v>
       </c>
-      <c r="F285" s="2">
+      <c r="F285" s="3">
         <v>43019</v>
       </c>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="1">
-        <v>284</v>
+      <c r="A286" s="2">
+        <v>43020</v>
       </c>
       <c r="B286">
         <v>1.2</v>
@@ -6109,13 +6113,13 @@
       <c r="E286">
         <v>88.73999999999999</v>
       </c>
-      <c r="F286" s="2">
+      <c r="F286" s="3">
         <v>43020</v>
       </c>
     </row>
     <row r="287" spans="1:6">
-      <c r="A287" s="1">
-        <v>285</v>
+      <c r="A287" s="2">
+        <v>43021</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -6129,13 +6133,13 @@
       <c r="E287">
         <v>88.73999999999999</v>
       </c>
-      <c r="F287" s="2">
+      <c r="F287" s="3">
         <v>43021</v>
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="1">
-        <v>286</v>
+      <c r="A288" s="2">
+        <v>43022</v>
       </c>
       <c r="B288">
         <v>0.8</v>
@@ -6149,13 +6153,13 @@
       <c r="E288">
         <v>89.45</v>
       </c>
-      <c r="F288" s="2">
+      <c r="F288" s="3">
         <v>43022</v>
       </c>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="1">
-        <v>287</v>
+      <c r="A289" s="2">
+        <v>43023</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -6169,13 +6173,13 @@
       <c r="E289">
         <v>89.45</v>
       </c>
-      <c r="F289" s="2">
+      <c r="F289" s="3">
         <v>43023</v>
       </c>
     </row>
     <row r="290" spans="1:6">
-      <c r="A290" s="1">
-        <v>288</v>
+      <c r="A290" s="2">
+        <v>43024</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -6189,13 +6193,13 @@
       <c r="E290">
         <v>89.45</v>
       </c>
-      <c r="F290" s="2">
+      <c r="F290" s="3">
         <v>43024</v>
       </c>
     </row>
     <row r="291" spans="1:6">
-      <c r="A291" s="1">
-        <v>289</v>
+      <c r="A291" s="2">
+        <v>43025</v>
       </c>
       <c r="B291">
         <v>-0.1</v>
@@ -6209,13 +6213,13 @@
       <c r="E291">
         <v>89.36</v>
       </c>
-      <c r="F291" s="2">
+      <c r="F291" s="3">
         <v>43025</v>
       </c>
     </row>
     <row r="292" spans="1:6">
-      <c r="A292" s="1">
-        <v>290</v>
+      <c r="A292" s="2">
+        <v>43026</v>
       </c>
       <c r="B292">
         <v>1.7</v>
@@ -6229,13 +6233,13 @@
       <c r="E292">
         <v>90.87</v>
       </c>
-      <c r="F292" s="2">
+      <c r="F292" s="3">
         <v>43026</v>
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="1">
-        <v>291</v>
+      <c r="A293" s="2">
+        <v>43027</v>
       </c>
       <c r="B293">
         <v>-0.5</v>
@@ -6249,13 +6253,13 @@
       <c r="E293">
         <v>90.42</v>
       </c>
-      <c r="F293" s="2">
+      <c r="F293" s="3">
         <v>43027</v>
       </c>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="1">
-        <v>292</v>
+      <c r="A294" s="2">
+        <v>43028</v>
       </c>
       <c r="B294">
         <v>0.2</v>
@@ -6269,13 +6273,13 @@
       <c r="E294">
         <v>90.59999999999999</v>
       </c>
-      <c r="F294" s="2">
+      <c r="F294" s="3">
         <v>43028</v>
       </c>
     </row>
     <row r="295" spans="1:6">
-      <c r="A295" s="1">
-        <v>293</v>
+      <c r="A295" s="2">
+        <v>43029</v>
       </c>
       <c r="B295">
         <v>0.4</v>
@@ -6289,13 +6293,13 @@
       <c r="E295">
         <v>90.95999999999999</v>
       </c>
-      <c r="F295" s="2">
+      <c r="F295" s="3">
         <v>43029</v>
       </c>
     </row>
     <row r="296" spans="1:6">
-      <c r="A296" s="1">
-        <v>294</v>
+      <c r="A296" s="2">
+        <v>43030</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -6309,13 +6313,13 @@
       <c r="E296">
         <v>90.95999999999999</v>
       </c>
-      <c r="F296" s="2">
+      <c r="F296" s="3">
         <v>43030</v>
       </c>
     </row>
     <row r="297" spans="1:6">
-      <c r="A297" s="1">
-        <v>295</v>
+      <c r="A297" s="2">
+        <v>43031</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -6329,13 +6333,13 @@
       <c r="E297">
         <v>90.95999999999999</v>
       </c>
-      <c r="F297" s="2">
+      <c r="F297" s="3">
         <v>43031</v>
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="1">
-        <v>296</v>
+      <c r="A298" s="2">
+        <v>43032</v>
       </c>
       <c r="B298">
         <v>-0.2</v>
@@ -6349,13 +6353,13 @@
       <c r="E298">
         <v>90.78</v>
       </c>
-      <c r="F298" s="2">
+      <c r="F298" s="3">
         <v>43032</v>
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="A299" s="1">
-        <v>297</v>
+      <c r="A299" s="2">
+        <v>43033</v>
       </c>
       <c r="B299">
         <v>1.7</v>
@@ -6369,13 +6373,13 @@
       <c r="E299">
         <v>92.33</v>
       </c>
-      <c r="F299" s="2">
+      <c r="F299" s="3">
         <v>43033</v>
       </c>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="1">
-        <v>298</v>
+      <c r="A300" s="2">
+        <v>43034</v>
       </c>
       <c r="B300">
         <v>0.6</v>
@@ -6389,13 +6393,13 @@
       <c r="E300">
         <v>92.88</v>
       </c>
-      <c r="F300" s="2">
+      <c r="F300" s="3">
         <v>43034</v>
       </c>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="1">
-        <v>299</v>
+      <c r="A301" s="2">
+        <v>43035</v>
       </c>
       <c r="B301">
         <v>1.7</v>
@@ -6409,13 +6413,13 @@
       <c r="E301">
         <v>94.45999999999999</v>
       </c>
-      <c r="F301" s="2">
+      <c r="F301" s="3">
         <v>43035</v>
       </c>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="1">
-        <v>300</v>
+      <c r="A302" s="2">
+        <v>43036</v>
       </c>
       <c r="B302">
         <v>0.6</v>
@@ -6429,13 +6433,13 @@
       <c r="E302">
         <v>95.02</v>
       </c>
-      <c r="F302" s="2">
+      <c r="F302" s="3">
         <v>43036</v>
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="1">
-        <v>301</v>
+      <c r="A303" s="2">
+        <v>43037</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -6449,13 +6453,13 @@
       <c r="E303">
         <v>95.02</v>
       </c>
-      <c r="F303" s="2">
+      <c r="F303" s="3">
         <v>43037</v>
       </c>
     </row>
     <row r="304" spans="1:6">
-      <c r="A304" s="1">
-        <v>302</v>
+      <c r="A304" s="2">
+        <v>43038</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -6469,13 +6473,13 @@
       <c r="E304">
         <v>95.02</v>
       </c>
-      <c r="F304" s="2">
+      <c r="F304" s="3">
         <v>43038</v>
       </c>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="1">
-        <v>303</v>
+      <c r="A305" s="2">
+        <v>43039</v>
       </c>
       <c r="B305">
         <v>2.1</v>
@@ -6489,13 +6493,13 @@
       <c r="E305">
         <v>97.02</v>
       </c>
-      <c r="F305" s="2">
+      <c r="F305" s="3">
         <v>43039</v>
       </c>
     </row>
     <row r="306" spans="1:6">
-      <c r="A306" s="1">
-        <v>304</v>
+      <c r="A306" s="2">
+        <v>43040</v>
       </c>
       <c r="B306">
         <v>-0.2</v>
@@ -6509,13 +6513,13 @@
       <c r="E306">
         <v>96.83</v>
       </c>
-      <c r="F306" s="2">
+      <c r="F306" s="3">
         <v>43040</v>
       </c>
     </row>
     <row r="307" spans="1:6">
-      <c r="A307" s="1">
-        <v>305</v>
+      <c r="A307" s="2">
+        <v>43041</v>
       </c>
       <c r="B307">
         <v>0.9</v>
@@ -6529,13 +6533,13 @@
       <c r="E307">
         <v>97.7</v>
       </c>
-      <c r="F307" s="2">
+      <c r="F307" s="3">
         <v>43041</v>
       </c>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="1">
-        <v>306</v>
+      <c r="A308" s="2">
+        <v>43042</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -6549,13 +6553,13 @@
       <c r="E308">
         <v>97.7</v>
       </c>
-      <c r="F308" s="2">
+      <c r="F308" s="3">
         <v>43042</v>
       </c>
     </row>
     <row r="309" spans="1:6">
-      <c r="A309" s="1">
-        <v>307</v>
+      <c r="A309" s="2">
+        <v>43043</v>
       </c>
       <c r="B309">
         <v>3.6</v>
@@ -6569,13 +6573,13 @@
       <c r="E309">
         <v>101.21</v>
       </c>
-      <c r="F309" s="2">
+      <c r="F309" s="3">
         <v>43043</v>
       </c>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="1">
-        <v>308</v>
+      <c r="A310" s="2">
+        <v>43044</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -6589,13 +6593,13 @@
       <c r="E310">
         <v>101.21</v>
       </c>
-      <c r="F310" s="2">
+      <c r="F310" s="3">
         <v>43044</v>
       </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="1">
-        <v>309</v>
+      <c r="A311" s="2">
+        <v>43045</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -6609,13 +6613,13 @@
       <c r="E311">
         <v>101.21</v>
       </c>
-      <c r="F311" s="2">
+      <c r="F311" s="3">
         <v>43045</v>
       </c>
     </row>
     <row r="312" spans="1:6">
-      <c r="A312" s="1">
-        <v>310</v>
+      <c r="A312" s="2">
+        <v>43046</v>
       </c>
       <c r="B312">
         <v>2.3</v>
@@ -6629,13 +6633,13 @@
       <c r="E312">
         <v>103.54</v>
       </c>
-      <c r="F312" s="2">
+      <c r="F312" s="3">
         <v>43046</v>
       </c>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="1">
-        <v>311</v>
+      <c r="A313" s="2">
+        <v>43047</v>
       </c>
       <c r="B313">
         <v>0.6</v>
@@ -6649,13 +6653,13 @@
       <c r="E313">
         <v>104.16</v>
       </c>
-      <c r="F313" s="2">
+      <c r="F313" s="3">
         <v>43047</v>
       </c>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" s="1">
-        <v>312</v>
+      <c r="A314" s="2">
+        <v>43048</v>
       </c>
       <c r="B314">
         <v>1.4</v>
@@ -6669,13 +6673,13 @@
       <c r="E314">
         <v>105.62</v>
       </c>
-      <c r="F314" s="2">
+      <c r="F314" s="3">
         <v>43048</v>
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" s="1">
-        <v>313</v>
+      <c r="A315" s="2">
+        <v>43049</v>
       </c>
       <c r="B315">
         <v>-1.3</v>
@@ -6689,13 +6693,13 @@
       <c r="E315">
         <v>104.25</v>
       </c>
-      <c r="F315" s="2">
+      <c r="F315" s="3">
         <v>43049</v>
       </c>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" s="1">
-        <v>314</v>
+      <c r="A316" s="2">
+        <v>43050</v>
       </c>
       <c r="B316">
         <v>-0.3</v>
@@ -6709,13 +6713,13 @@
       <c r="E316">
         <v>103.94</v>
       </c>
-      <c r="F316" s="2">
+      <c r="F316" s="3">
         <v>43050</v>
       </c>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" s="1">
-        <v>315</v>
+      <c r="A317" s="2">
+        <v>43051</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -6729,13 +6733,13 @@
       <c r="E317">
         <v>103.94</v>
       </c>
-      <c r="F317" s="2">
+      <c r="F317" s="3">
         <v>43051</v>
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="1">
-        <v>316</v>
+      <c r="A318" s="2">
+        <v>43052</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -6749,13 +6753,13 @@
       <c r="E318">
         <v>103.94</v>
       </c>
-      <c r="F318" s="2">
+      <c r="F318" s="3">
         <v>43052</v>
       </c>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="1">
-        <v>317</v>
+      <c r="A319" s="2">
+        <v>43053</v>
       </c>
       <c r="B319">
         <v>1.2</v>
@@ -6769,13 +6773,13 @@
       <c r="E319">
         <v>105.18</v>
       </c>
-      <c r="F319" s="2">
+      <c r="F319" s="3">
         <v>43053</v>
       </c>
     </row>
     <row r="320" spans="1:6">
-      <c r="A320" s="1">
-        <v>318</v>
+      <c r="A320" s="2">
+        <v>43054</v>
       </c>
       <c r="B320">
         <v>0.3</v>
@@ -6789,13 +6793,13 @@
       <c r="E320">
         <v>105.5</v>
       </c>
-      <c r="F320" s="2">
+      <c r="F320" s="3">
         <v>43054</v>
       </c>
     </row>
     <row r="321" spans="1:6">
-      <c r="A321" s="1">
-        <v>319</v>
+      <c r="A321" s="2">
+        <v>43055</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -6809,13 +6813,13 @@
       <c r="E321">
         <v>105.5</v>
       </c>
-      <c r="F321" s="2">
+      <c r="F321" s="3">
         <v>43055</v>
       </c>
     </row>
     <row r="322" spans="1:6">
-      <c r="A322" s="1">
-        <v>320</v>
+      <c r="A322" s="2">
+        <v>43056</v>
       </c>
       <c r="B322">
         <v>-3.8</v>
@@ -6829,13 +6833,13 @@
       <c r="E322">
         <v>101.49</v>
       </c>
-      <c r="F322" s="2">
+      <c r="F322" s="3">
         <v>43056</v>
       </c>
     </row>
     <row r="323" spans="1:6">
-      <c r="A323" s="1">
-        <v>321</v>
+      <c r="A323" s="2">
+        <v>43057</v>
       </c>
       <c r="B323">
         <v>-1.4</v>
@@ -6849,13 +6853,13 @@
       <c r="E323">
         <v>100.07</v>
       </c>
-      <c r="F323" s="2">
+      <c r="F323" s="3">
         <v>43057</v>
       </c>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="1">
-        <v>322</v>
+      <c r="A324" s="2">
+        <v>43058</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -6869,13 +6873,13 @@
       <c r="E324">
         <v>100.07</v>
       </c>
-      <c r="F324" s="2">
+      <c r="F324" s="3">
         <v>43058</v>
       </c>
     </row>
     <row r="325" spans="1:6">
-      <c r="A325" s="1">
-        <v>323</v>
+      <c r="A325" s="2">
+        <v>43059</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -6889,13 +6893,13 @@
       <c r="E325">
         <v>100.07</v>
       </c>
-      <c r="F325" s="2">
+      <c r="F325" s="3">
         <v>43059</v>
       </c>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="1">
-        <v>324</v>
+      <c r="A326" s="2">
+        <v>43060</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -6909,13 +6913,13 @@
       <c r="E326">
         <v>100.07</v>
       </c>
-      <c r="F326" s="2">
+      <c r="F326" s="3">
         <v>43060</v>
       </c>
     </row>
     <row r="327" spans="1:6">
-      <c r="A327" s="1">
-        <v>325</v>
+      <c r="A327" s="2">
+        <v>43061</v>
       </c>
       <c r="B327">
         <v>-2.6</v>
@@ -6929,13 +6933,13 @@
       <c r="E327">
         <v>97.47</v>
       </c>
-      <c r="F327" s="2">
+      <c r="F327" s="3">
         <v>43061</v>
       </c>
     </row>
     <row r="328" spans="1:6">
-      <c r="A328" s="1">
-        <v>326</v>
+      <c r="A328" s="2">
+        <v>43062</v>
       </c>
       <c r="B328">
         <v>5.1</v>
@@ -6949,13 +6953,13 @@
       <c r="E328">
         <v>102.44</v>
       </c>
-      <c r="F328" s="2">
+      <c r="F328" s="3">
         <v>43062</v>
       </c>
     </row>
     <row r="329" spans="1:6">
-      <c r="A329" s="1">
-        <v>327</v>
+      <c r="A329" s="2">
+        <v>43063</v>
       </c>
       <c r="B329">
         <v>1.9</v>
@@ -6969,13 +6973,13 @@
       <c r="E329">
         <v>104.38</v>
       </c>
-      <c r="F329" s="2">
+      <c r="F329" s="3">
         <v>43063</v>
       </c>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" s="1">
-        <v>328</v>
+      <c r="A330" s="2">
+        <v>43064</v>
       </c>
       <c r="B330">
         <v>-1.8</v>
@@ -6989,13 +6993,13 @@
       <c r="E330">
         <v>102.51</v>
       </c>
-      <c r="F330" s="2">
+      <c r="F330" s="3">
         <v>43064</v>
       </c>
     </row>
     <row r="331" spans="1:6">
-      <c r="A331" s="1">
-        <v>329</v>
+      <c r="A331" s="2">
+        <v>43065</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -7009,13 +7013,13 @@
       <c r="E331">
         <v>102.51</v>
       </c>
-      <c r="F331" s="2">
+      <c r="F331" s="3">
         <v>43065</v>
       </c>
     </row>
     <row r="332" spans="1:6">
-      <c r="A332" s="1">
-        <v>330</v>
+      <c r="A332" s="2">
+        <v>43066</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -7029,13 +7033,13 @@
       <c r="E332">
         <v>102.51</v>
       </c>
-      <c r="F332" s="2">
+      <c r="F332" s="3">
         <v>43066</v>
       </c>
     </row>
     <row r="333" spans="1:6">
-      <c r="A333" s="1">
-        <v>331</v>
+      <c r="A333" s="2">
+        <v>43067</v>
       </c>
       <c r="B333">
         <v>1.8</v>
@@ -7049,13 +7053,13 @@
       <c r="E333">
         <v>104.35</v>
       </c>
-      <c r="F333" s="2">
+      <c r="F333" s="3">
         <v>43067</v>
       </c>
     </row>
     <row r="334" spans="1:6">
-      <c r="A334" s="1">
-        <v>332</v>
+      <c r="A334" s="2">
+        <v>43068</v>
       </c>
       <c r="B334">
         <v>-2.3</v>
@@ -7069,13 +7073,13 @@
       <c r="E334">
         <v>101.95</v>
       </c>
-      <c r="F334" s="2">
+      <c r="F334" s="3">
         <v>43068</v>
       </c>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="1">
-        <v>333</v>
+      <c r="A335" s="2">
+        <v>43069</v>
       </c>
       <c r="B335">
         <v>-0.8</v>
@@ -7089,13 +7093,13 @@
       <c r="E335">
         <v>101.14</v>
       </c>
-      <c r="F335" s="2">
+      <c r="F335" s="3">
         <v>43069</v>
       </c>
     </row>
     <row r="336" spans="1:6">
-      <c r="A336" s="1">
-        <v>334</v>
+      <c r="A336" s="2">
+        <v>43070</v>
       </c>
       <c r="B336">
         <v>-0.8</v>
@@ -7109,13 +7113,13 @@
       <c r="E336">
         <v>100.33</v>
       </c>
-      <c r="F336" s="2">
+      <c r="F336" s="3">
         <v>43070</v>
       </c>
     </row>
     <row r="337" spans="1:6">
-      <c r="A337" s="1">
-        <v>335</v>
+      <c r="A337" s="2">
+        <v>43071</v>
       </c>
       <c r="B337">
         <v>1.9</v>
@@ -7129,13 +7133,13 @@
       <c r="E337">
         <v>102.23</v>
       </c>
-      <c r="F337" s="2">
+      <c r="F337" s="3">
         <v>43071</v>
       </c>
     </row>
     <row r="338" spans="1:6">
-      <c r="A338" s="1">
-        <v>336</v>
+      <c r="A338" s="2">
+        <v>43072</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -7149,13 +7153,13 @@
       <c r="E338">
         <v>102.23</v>
       </c>
-      <c r="F338" s="2">
+      <c r="F338" s="3">
         <v>43072</v>
       </c>
     </row>
     <row r="339" spans="1:6">
-      <c r="A339" s="1">
-        <v>337</v>
+      <c r="A339" s="2">
+        <v>43073</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -7169,13 +7173,13 @@
       <c r="E339">
         <v>102.23</v>
       </c>
-      <c r="F339" s="2">
+      <c r="F339" s="3">
         <v>43073</v>
       </c>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" s="1">
-        <v>338</v>
+      <c r="A340" s="2">
+        <v>43074</v>
       </c>
       <c r="B340">
         <v>-1.3</v>
@@ -7189,13 +7193,13 @@
       <c r="E340">
         <v>100.9</v>
       </c>
-      <c r="F340" s="2">
+      <c r="F340" s="3">
         <v>43074</v>
       </c>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="1">
-        <v>339</v>
+      <c r="A341" s="2">
+        <v>43075</v>
       </c>
       <c r="B341">
         <v>-0.1</v>
@@ -7209,13 +7213,13 @@
       <c r="E341">
         <v>100.8</v>
       </c>
-      <c r="F341" s="2">
+      <c r="F341" s="3">
         <v>43075</v>
       </c>
     </row>
     <row r="342" spans="1:6">
-      <c r="A342" s="1">
-        <v>340</v>
+      <c r="A342" s="2">
+        <v>43076</v>
       </c>
       <c r="B342">
         <v>-2.1</v>
@@ -7229,13 +7233,13 @@
       <c r="E342">
         <v>98.69</v>
       </c>
-      <c r="F342" s="2">
+      <c r="F342" s="3">
         <v>43076</v>
       </c>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" s="1">
-        <v>341</v>
+      <c r="A343" s="2">
+        <v>43077</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -7249,13 +7253,13 @@
       <c r="E343">
         <v>98.69</v>
       </c>
-      <c r="F343" s="2">
+      <c r="F343" s="3">
         <v>43077</v>
       </c>
     </row>
     <row r="344" spans="1:6">
-      <c r="A344" s="1">
-        <v>342</v>
+      <c r="A344" s="2">
+        <v>43078</v>
       </c>
       <c r="B344">
         <v>1.3</v>
@@ -7269,13 +7273,13 @@
       <c r="E344">
         <v>99.97</v>
       </c>
-      <c r="F344" s="2">
+      <c r="F344" s="3">
         <v>43078</v>
       </c>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" s="1">
-        <v>343</v>
+      <c r="A345" s="2">
+        <v>43079</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -7289,13 +7293,13 @@
       <c r="E345">
         <v>99.97</v>
       </c>
-      <c r="F345" s="2">
+      <c r="F345" s="3">
         <v>43079</v>
       </c>
     </row>
     <row r="346" spans="1:6">
-      <c r="A346" s="1">
-        <v>344</v>
+      <c r="A346" s="2">
+        <v>43080</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -7309,13 +7313,13 @@
       <c r="E346">
         <v>99.97</v>
       </c>
-      <c r="F346" s="2">
+      <c r="F346" s="3">
         <v>43080</v>
       </c>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="1">
-        <v>345</v>
+      <c r="A347" s="2">
+        <v>43081</v>
       </c>
       <c r="B347">
         <v>1.4</v>
@@ -7329,13 +7333,13 @@
       <c r="E347">
         <v>101.37</v>
       </c>
-      <c r="F347" s="2">
+      <c r="F347" s="3">
         <v>43081</v>
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="1">
-        <v>346</v>
+      <c r="A348" s="2">
+        <v>43082</v>
       </c>
       <c r="B348">
         <v>1.1</v>
@@ -7349,13 +7353,13 @@
       <c r="E348">
         <v>102.48</v>
       </c>
-      <c r="F348" s="2">
+      <c r="F348" s="3">
         <v>43082</v>
       </c>
     </row>
     <row r="349" spans="1:6">
-      <c r="A349" s="1">
-        <v>347</v>
+      <c r="A349" s="2">
+        <v>43083</v>
       </c>
       <c r="B349">
         <v>2.5</v>
@@ -7369,13 +7373,13 @@
       <c r="E349">
         <v>105.05</v>
       </c>
-      <c r="F349" s="2">
+      <c r="F349" s="3">
         <v>43083</v>
       </c>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" s="1">
-        <v>348</v>
+      <c r="A350" s="2">
+        <v>43084</v>
       </c>
       <c r="B350">
         <v>-2</v>
@@ -7389,13 +7393,13 @@
       <c r="E350">
         <v>102.94</v>
       </c>
-      <c r="F350" s="2">
+      <c r="F350" s="3">
         <v>43084</v>
       </c>
     </row>
     <row r="351" spans="1:6">
-      <c r="A351" s="1">
-        <v>349</v>
+      <c r="A351" s="2">
+        <v>43085</v>
       </c>
       <c r="B351">
         <v>0.1</v>
@@ -7409,13 +7413,13 @@
       <c r="E351">
         <v>103.05</v>
       </c>
-      <c r="F351" s="2">
+      <c r="F351" s="3">
         <v>43085</v>
       </c>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" s="1">
-        <v>350</v>
+      <c r="A352" s="2">
+        <v>43086</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -7429,13 +7433,13 @@
       <c r="E352">
         <v>103.05</v>
       </c>
-      <c r="F352" s="2">
+      <c r="F352" s="3">
         <v>43086</v>
       </c>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="1">
-        <v>351</v>
+      <c r="A353" s="2">
+        <v>43087</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -7449,13 +7453,13 @@
       <c r="E353">
         <v>103.05</v>
       </c>
-      <c r="F353" s="2">
+      <c r="F353" s="3">
         <v>43087</v>
       </c>
     </row>
     <row r="354" spans="1:6">
-      <c r="A354" s="1">
-        <v>352</v>
+      <c r="A354" s="2">
+        <v>43088</v>
       </c>
       <c r="B354">
         <v>0.4</v>
@@ -7469,13 +7473,13 @@
       <c r="E354">
         <v>103.46</v>
       </c>
-      <c r="F354" s="2">
+      <c r="F354" s="3">
         <v>43088</v>
       </c>
     </row>
     <row r="355" spans="1:6">
-      <c r="A355" s="1">
-        <v>353</v>
+      <c r="A355" s="2">
+        <v>43089</v>
       </c>
       <c r="B355">
         <v>-2.2</v>
@@ -7489,13 +7493,13 @@
       <c r="E355">
         <v>101.18</v>
       </c>
-      <c r="F355" s="2">
+      <c r="F355" s="3">
         <v>43089</v>
       </c>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="1">
-        <v>354</v>
+      <c r="A356" s="2">
+        <v>43090</v>
       </c>
       <c r="B356">
         <v>1.4</v>
@@ -7509,13 +7513,13 @@
       <c r="E356">
         <v>102.6</v>
       </c>
-      <c r="F356" s="2">
+      <c r="F356" s="3">
         <v>43090</v>
       </c>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="1">
-        <v>355</v>
+      <c r="A357" s="2">
+        <v>43091</v>
       </c>
       <c r="B357">
         <v>1.1</v>
@@ -7529,13 +7533,13 @@
       <c r="E357">
         <v>103.73</v>
       </c>
-      <c r="F357" s="2">
+      <c r="F357" s="3">
         <v>43091</v>
       </c>
     </row>
     <row r="358" spans="1:6">
-      <c r="A358" s="1">
-        <v>356</v>
+      <c r="A358" s="2">
+        <v>43092</v>
       </c>
       <c r="B358">
         <v>0.7</v>
@@ -7549,13 +7553,13 @@
       <c r="E358">
         <v>104.45</v>
       </c>
-      <c r="F358" s="2">
+      <c r="F358" s="3">
         <v>43092</v>
       </c>
     </row>
     <row r="359" spans="1:6">
-      <c r="A359" s="1">
-        <v>357</v>
+      <c r="A359" s="2">
+        <v>43093</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -7569,13 +7573,13 @@
       <c r="E359">
         <v>104.45</v>
       </c>
-      <c r="F359" s="2">
+      <c r="F359" s="3">
         <v>43093</v>
       </c>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" s="1">
-        <v>358</v>
+      <c r="A360" s="2">
+        <v>43094</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -7589,13 +7593,13 @@
       <c r="E360">
         <v>104.45</v>
       </c>
-      <c r="F360" s="2">
+      <c r="F360" s="3">
         <v>43094</v>
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" s="1">
-        <v>359</v>
+      <c r="A361" s="2">
+        <v>43095</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -7609,13 +7613,13 @@
       <c r="E361">
         <v>104.45</v>
       </c>
-      <c r="F361" s="2">
+      <c r="F361" s="3">
         <v>43095</v>
       </c>
     </row>
     <row r="362" spans="1:6">
-      <c r="A362" s="1">
-        <v>360</v>
+      <c r="A362" s="2">
+        <v>43096</v>
       </c>
       <c r="B362">
         <v>-0.4</v>
@@ -7629,13 +7633,13 @@
       <c r="E362">
         <v>104.04</v>
       </c>
-      <c r="F362" s="2">
+      <c r="F362" s="3">
         <v>43096</v>
       </c>
     </row>
     <row r="363" spans="1:6">
-      <c r="A363" s="1">
-        <v>361</v>
+      <c r="A363" s="2">
+        <v>43097</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -7649,13 +7653,13 @@
       <c r="E363">
         <v>104.04</v>
       </c>
-      <c r="F363" s="2">
+      <c r="F363" s="3">
         <v>43097</v>
       </c>
     </row>
     <row r="364" spans="1:6">
-      <c r="A364" s="1">
-        <v>362</v>
+      <c r="A364" s="2">
+        <v>43098</v>
       </c>
       <c r="B364">
         <v>1.7</v>
@@ -7669,13 +7673,13 @@
       <c r="E364">
         <v>105.81</v>
       </c>
-      <c r="F364" s="2">
+      <c r="F364" s="3">
         <v>43098</v>
       </c>
     </row>
     <row r="365" spans="1:6">
-      <c r="A365" s="1">
-        <v>363</v>
+      <c r="A365" s="2">
+        <v>43099</v>
       </c>
       <c r="B365">
         <v>1.9</v>
@@ -7689,13 +7693,13 @@
       <c r="E365">
         <v>107.82</v>
       </c>
-      <c r="F365" s="2">
+      <c r="F365" s="3">
         <v>43099</v>
       </c>
     </row>
     <row r="366" spans="1:6">
-      <c r="A366" s="1">
-        <v>364</v>
+      <c r="A366" s="2">
+        <v>43100</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -7709,13 +7713,13 @@
       <c r="E366">
         <v>107.82</v>
       </c>
-      <c r="F366" s="2">
+      <c r="F366" s="3">
         <v>43100</v>
       </c>
     </row>
     <row r="367" spans="1:6">
-      <c r="A367" s="1">
-        <v>365</v>
+      <c r="A367" s="2">
+        <v>43101</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -7729,13 +7733,13 @@
       <c r="E367">
         <v>107.82</v>
       </c>
-      <c r="F367" s="2">
+      <c r="F367" s="3">
         <v>43101</v>
       </c>
     </row>
     <row r="368" spans="1:6">
-      <c r="A368" s="1">
-        <v>366</v>
+      <c r="A368" s="2">
+        <v>43102</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -7749,13 +7753,13 @@
       <c r="E368">
         <v>107.82</v>
       </c>
-      <c r="F368" s="2">
+      <c r="F368" s="3">
         <v>43102</v>
       </c>
     </row>
     <row r="369" spans="1:6">
-      <c r="A369" s="1">
-        <v>367</v>
+      <c r="A369" s="2">
+        <v>43103</v>
       </c>
       <c r="B369">
         <v>-0.1</v>
@@ -7769,13 +7773,13 @@
       <c r="E369">
         <v>107.71</v>
       </c>
-      <c r="F369" s="2">
+      <c r="F369" s="3">
         <v>43103</v>
       </c>
     </row>
     <row r="370" spans="1:6">
-      <c r="A370" s="1">
-        <v>368</v>
+      <c r="A370" s="2">
+        <v>43104</v>
       </c>
       <c r="B370">
         <v>-1.4</v>
@@ -7789,13 +7793,13 @@
       <c r="E370">
         <v>106.2</v>
       </c>
-      <c r="F370" s="2">
+      <c r="F370" s="3">
         <v>43104</v>
       </c>
     </row>
     <row r="371" spans="1:6">
-      <c r="A371" s="1">
-        <v>369</v>
+      <c r="A371" s="2">
+        <v>43105</v>
       </c>
       <c r="B371">
         <v>-0.9</v>
@@ -7809,13 +7813,13 @@
       <c r="E371">
         <v>105.24</v>
       </c>
-      <c r="F371" s="2">
+      <c r="F371" s="3">
         <v>43105</v>
       </c>
     </row>
     <row r="372" spans="1:6">
-      <c r="A372" s="1">
-        <v>370</v>
+      <c r="A372" s="2">
+        <v>43106</v>
       </c>
       <c r="B372">
         <v>-1.1</v>
@@ -7829,13 +7833,13 @@
       <c r="E372">
         <v>104.09</v>
       </c>
-      <c r="F372" s="2">
+      <c r="F372" s="3">
         <v>43106</v>
       </c>
     </row>
     <row r="373" spans="1:6">
-      <c r="A373" s="1">
-        <v>371</v>
+      <c r="A373" s="2">
+        <v>43107</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -7849,13 +7853,13 @@
       <c r="E373">
         <v>104.09</v>
       </c>
-      <c r="F373" s="2">
+      <c r="F373" s="3">
         <v>43107</v>
       </c>
     </row>
     <row r="374" spans="1:6">
-      <c r="A374" s="1">
-        <v>372</v>
+      <c r="A374" s="2">
+        <v>43108</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -7869,13 +7873,13 @@
       <c r="E374">
         <v>104.09</v>
       </c>
-      <c r="F374" s="2">
+      <c r="F374" s="3">
         <v>43108</v>
       </c>
     </row>
     <row r="375" spans="1:6">
-      <c r="A375" s="1">
-        <v>373</v>
+      <c r="A375" s="2">
+        <v>43109</v>
       </c>
       <c r="B375">
         <v>-1.6</v>
@@ -7889,13 +7893,13 @@
       <c r="E375">
         <v>102.42</v>
       </c>
-      <c r="F375" s="2">
+      <c r="F375" s="3">
         <v>43109</v>
       </c>
     </row>
     <row r="376" spans="1:6">
-      <c r="A376" s="1">
-        <v>374</v>
+      <c r="A376" s="2">
+        <v>43110</v>
       </c>
       <c r="B376">
         <v>0.7</v>
@@ -7909,13 +7913,13 @@
       <c r="E376">
         <v>103.14</v>
       </c>
-      <c r="F376" s="2">
+      <c r="F376" s="3">
         <v>43110</v>
       </c>
     </row>
     <row r="377" spans="1:6">
-      <c r="A377" s="1">
-        <v>375</v>
+      <c r="A377" s="2">
+        <v>43111</v>
       </c>
       <c r="B377">
         <v>1.4</v>
@@ -7929,13 +7933,13 @@
       <c r="E377">
         <v>104.58</v>
       </c>
-      <c r="F377" s="2">
+      <c r="F377" s="3">
         <v>43111</v>
       </c>
     </row>
     <row r="378" spans="1:6">
-      <c r="A378" s="1">
-        <v>376</v>
+      <c r="A378" s="2">
+        <v>43112</v>
       </c>
       <c r="B378">
         <v>1.4</v>
@@ -7949,13 +7953,13 @@
       <c r="E378">
         <v>106.05</v>
       </c>
-      <c r="F378" s="2">
+      <c r="F378" s="3">
         <v>43112</v>
       </c>
     </row>
     <row r="379" spans="1:6">
-      <c r="A379" s="1">
-        <v>377</v>
+      <c r="A379" s="2">
+        <v>43113</v>
       </c>
       <c r="B379">
         <v>-0.7</v>
@@ -7969,13 +7973,13 @@
       <c r="E379">
         <v>105.3</v>
       </c>
-      <c r="F379" s="2">
+      <c r="F379" s="3">
         <v>43113</v>
       </c>
     </row>
     <row r="380" spans="1:6">
-      <c r="A380" s="1">
-        <v>378</v>
+      <c r="A380" s="2">
+        <v>43114</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -7989,13 +7993,13 @@
       <c r="E380">
         <v>105.3</v>
       </c>
-      <c r="F380" s="2">
+      <c r="F380" s="3">
         <v>43114</v>
       </c>
     </row>
     <row r="381" spans="1:6">
-      <c r="A381" s="1">
-        <v>379</v>
+      <c r="A381" s="2">
+        <v>43115</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -8009,13 +8013,13 @@
       <c r="E381">
         <v>105.3</v>
       </c>
-      <c r="F381" s="2">
+      <c r="F381" s="3">
         <v>43115</v>
       </c>
     </row>
     <row r="382" spans="1:6">
-      <c r="A382" s="1">
-        <v>380</v>
+      <c r="A382" s="2">
+        <v>43116</v>
       </c>
       <c r="B382">
         <v>-0.8</v>
@@ -8029,13 +8033,13 @@
       <c r="E382">
         <v>104.46</v>
       </c>
-      <c r="F382" s="2">
+      <c r="F382" s="3">
         <v>43116</v>
       </c>
     </row>
     <row r="383" spans="1:6">
-      <c r="A383" s="1">
-        <v>381</v>
+      <c r="A383" s="2">
+        <v>43117</v>
       </c>
       <c r="B383">
         <v>-0.6</v>
@@ -8049,13 +8053,13 @@
       <c r="E383">
         <v>103.83</v>
       </c>
-      <c r="F383" s="2">
+      <c r="F383" s="3">
         <v>43117</v>
       </c>
     </row>
     <row r="384" spans="1:6">
-      <c r="A384" s="1">
-        <v>382</v>
+      <c r="A384" s="2">
+        <v>43118</v>
       </c>
       <c r="B384">
         <v>-0.5</v>
@@ -8069,13 +8073,13 @@
       <c r="E384">
         <v>103.32</v>
       </c>
-      <c r="F384" s="2">
+      <c r="F384" s="3">
         <v>43118</v>
       </c>
     </row>
     <row r="385" spans="1:6">
-      <c r="A385" s="1">
-        <v>383</v>
+      <c r="A385" s="2">
+        <v>43119</v>
       </c>
       <c r="B385">
         <v>0.8</v>
@@ -8089,13 +8093,13 @@
       <c r="E385">
         <v>104.14</v>
       </c>
-      <c r="F385" s="2">
+      <c r="F385" s="3">
         <v>43119</v>
       </c>
     </row>
     <row r="386" spans="1:6">
-      <c r="A386" s="1">
-        <v>384</v>
+      <c r="A386" s="2">
+        <v>43120</v>
       </c>
       <c r="B386">
         <v>0.7</v>
@@ -8109,13 +8113,13 @@
       <c r="E386">
         <v>104.87</v>
       </c>
-      <c r="F386" s="2">
+      <c r="F386" s="3">
         <v>43120</v>
       </c>
     </row>
     <row r="387" spans="1:6">
-      <c r="A387" s="1">
-        <v>385</v>
+      <c r="A387" s="2">
+        <v>43121</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -8129,13 +8133,13 @@
       <c r="E387">
         <v>104.87</v>
       </c>
-      <c r="F387" s="2">
+      <c r="F387" s="3">
         <v>43121</v>
       </c>
     </row>
     <row r="388" spans="1:6">
-      <c r="A388" s="1">
-        <v>386</v>
+      <c r="A388" s="2">
+        <v>43122</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -8149,13 +8153,13 @@
       <c r="E388">
         <v>104.87</v>
       </c>
-      <c r="F388" s="2">
+      <c r="F388" s="3">
         <v>43122</v>
       </c>
     </row>
     <row r="389" spans="1:6">
-      <c r="A389" s="1">
-        <v>387</v>
+      <c r="A389" s="2">
+        <v>43123</v>
       </c>
       <c r="B389">
         <v>-1.4</v>
@@ -8169,13 +8173,13 @@
       <c r="E389">
         <v>103.4</v>
       </c>
-      <c r="F389" s="2">
+      <c r="F389" s="3">
         <v>43123</v>
       </c>
     </row>
     <row r="390" spans="1:6">
-      <c r="A390" s="1">
-        <v>388</v>
+      <c r="A390" s="2">
+        <v>43124</v>
       </c>
       <c r="B390">
         <v>-0.8</v>
@@ -8189,13 +8193,13 @@
       <c r="E390">
         <v>102.58</v>
       </c>
-      <c r="F390" s="2">
+      <c r="F390" s="3">
         <v>43124</v>
       </c>
     </row>
     <row r="391" spans="1:6">
-      <c r="A391" s="1">
-        <v>389</v>
+      <c r="A391" s="2">
+        <v>43125</v>
       </c>
       <c r="B391">
         <v>1.4</v>
@@ -8209,13 +8213,13 @@
       <c r="E391">
         <v>104.01</v>
       </c>
-      <c r="F391" s="2">
+      <c r="F391" s="3">
         <v>43125</v>
       </c>
     </row>
     <row r="392" spans="1:6">
-      <c r="A392" s="1">
-        <v>390</v>
+      <c r="A392" s="2">
+        <v>43126</v>
       </c>
       <c r="B392">
         <v>0.5</v>
@@ -8229,13 +8233,13 @@
       <c r="E392">
         <v>104.53</v>
       </c>
-      <c r="F392" s="2">
+      <c r="F392" s="3">
         <v>43126</v>
       </c>
     </row>
     <row r="393" spans="1:6">
-      <c r="A393" s="1">
-        <v>391</v>
+      <c r="A393" s="2">
+        <v>43127</v>
       </c>
       <c r="B393">
         <v>-0.2</v>
@@ -8249,13 +8253,13 @@
       <c r="E393">
         <v>104.32</v>
       </c>
-      <c r="F393" s="2">
+      <c r="F393" s="3">
         <v>43127</v>
       </c>
     </row>
     <row r="394" spans="1:6">
-      <c r="A394" s="1">
-        <v>392</v>
+      <c r="A394" s="2">
+        <v>43128</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -8269,13 +8273,13 @@
       <c r="E394">
         <v>104.32</v>
       </c>
-      <c r="F394" s="2">
+      <c r="F394" s="3">
         <v>43128</v>
       </c>
     </row>
     <row r="395" spans="1:6">
-      <c r="A395" s="1">
-        <v>393</v>
+      <c r="A395" s="2">
+        <v>43129</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -8289,13 +8293,13 @@
       <c r="E395">
         <v>104.32</v>
       </c>
-      <c r="F395" s="2">
+      <c r="F395" s="3">
         <v>43129</v>
       </c>
     </row>
     <row r="396" spans="1:6">
-      <c r="A396" s="1">
-        <v>394</v>
+      <c r="A396" s="2">
+        <v>43130</v>
       </c>
       <c r="B396">
         <v>0.1</v>
@@ -8309,13 +8313,13 @@
       <c r="E396">
         <v>104.43</v>
       </c>
-      <c r="F396" s="2">
+      <c r="F396" s="3">
         <v>43130</v>
       </c>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="1">
-        <v>395</v>
+      <c r="A397" s="2">
+        <v>43131</v>
       </c>
       <c r="B397">
         <v>-2.9</v>
@@ -8329,13 +8333,13 @@
       <c r="E397">
         <v>101.4</v>
       </c>
-      <c r="F397" s="2">
+      <c r="F397" s="3">
         <v>43131</v>
       </c>
     </row>
     <row r="398" spans="1:6">
-      <c r="A398" s="1">
-        <v>396</v>
+      <c r="A398" s="2">
+        <v>43132</v>
       </c>
       <c r="B398">
         <v>-1.5</v>
@@ -8349,13 +8353,13 @@
       <c r="E398">
         <v>99.88</v>
       </c>
-      <c r="F398" s="2">
+      <c r="F398" s="3">
         <v>43132</v>
       </c>
     </row>
     <row r="399" spans="1:6">
-      <c r="A399" s="1">
-        <v>397</v>
+      <c r="A399" s="2">
+        <v>43133</v>
       </c>
       <c r="B399">
         <v>0.8</v>
@@ -8369,13 +8373,13 @@
       <c r="E399">
         <v>100.68</v>
       </c>
-      <c r="F399" s="2">
+      <c r="F399" s="3">
         <v>43133</v>
       </c>
     </row>
     <row r="400" spans="1:6">
-      <c r="A400" s="1">
-        <v>398</v>
+      <c r="A400" s="2">
+        <v>43134</v>
       </c>
       <c r="B400">
         <v>0.5</v>
@@ -8389,13 +8393,13 @@
       <c r="E400">
         <v>101.18</v>
       </c>
-      <c r="F400" s="2">
+      <c r="F400" s="3">
         <v>43134</v>
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="A401" s="1">
-        <v>399</v>
+      <c r="A401" s="2">
+        <v>43135</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -8409,13 +8413,13 @@
       <c r="E401">
         <v>101.18</v>
       </c>
-      <c r="F401" s="2">
+      <c r="F401" s="3">
         <v>43135</v>
       </c>
     </row>
     <row r="402" spans="1:6">
-      <c r="A402" s="1">
-        <v>400</v>
+      <c r="A402" s="2">
+        <v>43136</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -8429,13 +8433,13 @@
       <c r="E402">
         <v>101.18</v>
       </c>
-      <c r="F402" s="2">
+      <c r="F402" s="3">
         <v>43136</v>
       </c>
     </row>
     <row r="403" spans="1:6">
-      <c r="A403" s="1">
-        <v>401</v>
+      <c r="A403" s="2">
+        <v>43137</v>
       </c>
       <c r="B403">
         <v>0.5</v>
@@ -8449,13 +8453,13 @@
       <c r="E403">
         <v>101.69</v>
       </c>
-      <c r="F403" s="2">
+      <c r="F403" s="3">
         <v>43137</v>
       </c>
     </row>
     <row r="404" spans="1:6">
-      <c r="A404" s="1">
-        <v>402</v>
+      <c r="A404" s="2">
+        <v>43138</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -8469,13 +8473,13 @@
       <c r="E404">
         <v>101.69</v>
       </c>
-      <c r="F404" s="2">
+      <c r="F404" s="3">
         <v>43138</v>
       </c>
     </row>
     <row r="405" spans="1:6">
-      <c r="A405" s="1">
-        <v>403</v>
+      <c r="A405" s="2">
+        <v>43139</v>
       </c>
       <c r="B405">
         <v>-1.5</v>
@@ -8489,13 +8493,13 @@
       <c r="E405">
         <v>100.16</v>
       </c>
-      <c r="F405" s="2">
+      <c r="F405" s="3">
         <v>43139</v>
       </c>
     </row>
     <row r="406" spans="1:6">
-      <c r="A406" s="1">
-        <v>404</v>
+      <c r="A406" s="2">
+        <v>43140</v>
       </c>
       <c r="B406">
         <v>-3</v>
@@ -8509,13 +8513,13 @@
       <c r="E406">
         <v>97.16</v>
       </c>
-      <c r="F406" s="2">
+      <c r="F406" s="3">
         <v>43140</v>
       </c>
     </row>
     <row r="407" spans="1:6">
-      <c r="A407" s="1">
-        <v>405</v>
+      <c r="A407" s="2">
+        <v>43141</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -8529,13 +8533,13 @@
       <c r="E407">
         <v>97.16</v>
       </c>
-      <c r="F407" s="2">
+      <c r="F407" s="3">
         <v>43141</v>
       </c>
     </row>
     <row r="408" spans="1:6">
-      <c r="A408" s="1">
-        <v>406</v>
+      <c r="A408" s="2">
+        <v>43142</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -8549,13 +8553,13 @@
       <c r="E408">
         <v>97.16</v>
       </c>
-      <c r="F408" s="2">
+      <c r="F408" s="3">
         <v>43142</v>
       </c>
     </row>
     <row r="409" spans="1:6">
-      <c r="A409" s="1">
-        <v>407</v>
+      <c r="A409" s="2">
+        <v>43143</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -8569,13 +8573,13 @@
       <c r="E409">
         <v>97.16</v>
       </c>
-      <c r="F409" s="2">
+      <c r="F409" s="3">
         <v>43143</v>
       </c>
     </row>
     <row r="410" spans="1:6">
-      <c r="A410" s="1">
-        <v>408</v>
+      <c r="A410" s="2">
+        <v>43144</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -8589,13 +8593,13 @@
       <c r="E410">
         <v>97.16</v>
       </c>
-      <c r="F410" s="2">
+      <c r="F410" s="3">
         <v>43144</v>
       </c>
     </row>
     <row r="411" spans="1:6">
-      <c r="A411" s="1">
-        <v>409</v>
+      <c r="A411" s="2">
+        <v>43145</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -8609,13 +8613,13 @@
       <c r="E411">
         <v>97.16</v>
       </c>
-      <c r="F411" s="2">
+      <c r="F411" s="3">
         <v>43145</v>
       </c>
     </row>
     <row r="412" spans="1:6">
-      <c r="A412" s="1">
-        <v>410</v>
+      <c r="A412" s="2">
+        <v>43146</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -8629,13 +8633,13 @@
       <c r="E412">
         <v>97.16</v>
       </c>
-      <c r="F412" s="2">
+      <c r="F412" s="3">
         <v>43146</v>
       </c>
     </row>
     <row r="413" spans="1:6">
-      <c r="A413" s="1">
-        <v>411</v>
+      <c r="A413" s="2">
+        <v>43147</v>
       </c>
       <c r="B413">
         <v>-3.9</v>
@@ -8644,18 +8648,18 @@
         <v>-2.3</v>
       </c>
       <c r="D413">
-        <v>93.37075999999999</v>
+        <v>93.37</v>
       </c>
       <c r="E413">
-        <v>93.37075999999999</v>
-      </c>
-      <c r="F413" s="2">
+        <v>93.37</v>
+      </c>
+      <c r="F413" s="3">
         <v>43147</v>
       </c>
     </row>
     <row r="414" spans="1:6">
-      <c r="A414" s="1">
-        <v>412</v>
+      <c r="A414" s="2">
+        <v>43148</v>
       </c>
       <c r="B414">
         <v>1.5</v>
@@ -8664,93 +8668,153 @@
         <v>-0.8</v>
       </c>
       <c r="D414">
-        <v>94.77132139999999</v>
+        <v>94.77</v>
       </c>
       <c r="E414">
-        <v>94.77132139999999</v>
-      </c>
-      <c r="F414" s="2">
+        <v>94.77</v>
+      </c>
+      <c r="F414" s="3">
         <v>43148</v>
       </c>
     </row>
     <row r="415" spans="1:6">
-      <c r="A415" s="1">
-        <v>413</v>
+      <c r="A415" s="2">
+        <v>43149</v>
       </c>
       <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>94.77</v>
+      </c>
+      <c r="E415">
+        <v>94.77</v>
+      </c>
+      <c r="F415" s="3">
+        <v>43149</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="2">
+        <v>43150</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>94.77</v>
+      </c>
+      <c r="E416">
+        <v>94.77</v>
+      </c>
+      <c r="F416" s="3">
+        <v>43150</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" s="2">
+        <v>43151</v>
+      </c>
+      <c r="B417">
         <v>1.8</v>
       </c>
-      <c r="C415">
+      <c r="C417">
         <v>1.5</v>
       </c>
-      <c r="D415">
-        <v>96.47720518519999</v>
-      </c>
-      <c r="E415">
-        <v>96.47720518519999</v>
-      </c>
-      <c r="F415" s="2">
+      <c r="D417">
+        <v>96.48</v>
+      </c>
+      <c r="E417">
+        <v>96.48</v>
+      </c>
+      <c r="F417" s="3">
         <v>43151</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
-      <c r="A416" s="1">
-        <v>414</v>
-      </c>
-      <c r="B416">
+    <row r="418" spans="1:6">
+      <c r="A418" s="2">
+        <v>43152</v>
+      </c>
+      <c r="B418">
         <v>1.9</v>
       </c>
-      <c r="C416">
+      <c r="C418">
         <v>-0.1</v>
       </c>
-      <c r="D416">
-        <v>98.31027208371879</v>
-      </c>
-      <c r="E416">
-        <v>98.31027208371879</v>
-      </c>
-      <c r="F416" s="2">
+      <c r="D418">
+        <v>98.31</v>
+      </c>
+      <c r="E418">
+        <v>98.31</v>
+      </c>
+      <c r="F418" s="3">
         <v>43152</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
-      <c r="A417" s="1">
-        <v>415</v>
-      </c>
-      <c r="B417">
+    <row r="419" spans="1:6">
+      <c r="A419" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B419">
         <v>0.9</v>
       </c>
-      <c r="C417">
+      <c r="C419">
         <v>1.4</v>
       </c>
-      <c r="D417">
-        <v>99.19506453247226</v>
-      </c>
-      <c r="E417">
-        <v>99.19506453247226</v>
-      </c>
-      <c r="F417" s="2">
+      <c r="D419">
+        <v>99.2</v>
+      </c>
+      <c r="E419">
+        <v>99.2</v>
+      </c>
+      <c r="F419" s="3">
         <v>43153</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
-      <c r="A418" s="1">
-        <v>416</v>
-      </c>
-      <c r="B418">
-        <v>0</v>
-      </c>
-      <c r="C418">
+    <row r="420" spans="1:6">
+      <c r="A420" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+      <c r="C420">
         <v>0.6</v>
       </c>
-      <c r="D418">
-        <v>99.19506453247226</v>
-      </c>
-      <c r="E418">
-        <v>99.19506453247226</v>
-      </c>
-      <c r="F418" s="2">
+      <c r="D420">
+        <v>99.2</v>
+      </c>
+      <c r="E420">
+        <v>99.2</v>
+      </c>
+      <c r="F420" s="3">
         <v>43154</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B421">
+        <v>0.2</v>
+      </c>
+      <c r="C421">
+        <v>1.2</v>
+      </c>
+      <c r="D421">
+        <v>99.39</v>
+      </c>
+      <c r="E421">
+        <v>99.39</v>
+      </c>
+      <c r="F421" s="3">
+        <v>43155</v>
       </c>
     </row>
   </sheetData>
